--- a/data/jadwal_sidang/Jadwal Sidang Terjadwal 1 3 dan reg Juli 2020 v9 Juli 2020_pwd.xlsx
+++ b/data/jadwal_sidang/Jadwal Sidang Terjadwal 1 3 dan reg Juli 2020 v9 Juli 2020_pwd.xlsx
@@ -66,6 +66,74 @@
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -512,7 +580,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>RXszPF</t>
+          <t>7jjF75</t>
         </is>
       </c>
     </row>
@@ -586,7 +654,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>R6W463</t>
+          <t>QH2vqs</t>
         </is>
       </c>
     </row>
@@ -659,7 +727,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>lT5gMH</t>
+          <t>UnPSZ0</t>
         </is>
       </c>
     </row>
@@ -732,7 +800,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>hp098H</t>
+          <t>cEr2bQ</t>
         </is>
       </c>
     </row>
@@ -806,7 +874,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>lMJsti</t>
+          <t>Qfnmu9</t>
         </is>
       </c>
     </row>
@@ -875,7 +943,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>S74QZ8</t>
+          <t>700an7</t>
         </is>
       </c>
     </row>
@@ -940,7 +1008,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Mzh8K2</t>
+          <t>Xvsa10</t>
         </is>
       </c>
     </row>
@@ -1013,7 +1081,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>bQDJxD</t>
+          <t>e1q6pt</t>
         </is>
       </c>
     </row>
@@ -1082,7 +1150,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>0D79il</t>
+          <t>Z1fy5P</t>
         </is>
       </c>
     </row>
@@ -1147,7 +1215,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>1R6YjX</t>
+          <t>ZdTdw2</t>
         </is>
       </c>
     </row>
@@ -1216,7 +1284,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>N9hsBs</t>
+          <t>2LWRzx</t>
         </is>
       </c>
     </row>
@@ -1289,7 +1357,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>hPlJUz</t>
+          <t>ztOiZq</t>
         </is>
       </c>
     </row>
@@ -1363,7 +1431,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>8YtRJu</t>
+          <t>WU7P3R</t>
         </is>
       </c>
     </row>
@@ -1432,7 +1500,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>3VDpEd</t>
+          <t>XASEkY</t>
         </is>
       </c>
     </row>
@@ -1501,7 +1569,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>FhHbM3</t>
+          <t>sItmmn</t>
         </is>
       </c>
     </row>
@@ -1574,7 +1642,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>wofIKJ</t>
+          <t>b3OseO</t>
         </is>
       </c>
     </row>
@@ -1643,7 +1711,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>BTCeb9</t>
+          <t>r9gv5U</t>
         </is>
       </c>
     </row>
@@ -1708,7 +1776,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>ofeU7Q</t>
+          <t>Uo1K0p</t>
         </is>
       </c>
     </row>
@@ -1781,7 +1849,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Is76Zl</t>
+          <t>IX2dPl</t>
         </is>
       </c>
     </row>
@@ -1854,7 +1922,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>szBYxS</t>
+          <t>NQh5f8</t>
         </is>
       </c>
     </row>
@@ -1919,7 +1987,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>UBmmSw</t>
+          <t>JStLNn</t>
         </is>
       </c>
     </row>
@@ -1988,7 +2056,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>CQYOal</t>
+          <t>S4FMxZ</t>
         </is>
       </c>
     </row>
@@ -2057,7 +2125,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>WICzV0</t>
+          <t>Cto85C</t>
         </is>
       </c>
     </row>
@@ -2130,7 +2198,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>SHY6cb</t>
+          <t>fTdGnX</t>
         </is>
       </c>
     </row>
@@ -2203,7 +2271,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>QNYpMk</t>
+          <t>lGlHGL</t>
         </is>
       </c>
     </row>
@@ -2272,7 +2340,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>zNd9dE</t>
+          <t>4LfCPL</t>
         </is>
       </c>
     </row>
@@ -2341,7 +2409,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>9NBOxt</t>
+          <t>mfuF0Q</t>
         </is>
       </c>
     </row>
@@ -2414,7 +2482,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>sFkZQW</t>
+          <t>QxSOVe</t>
         </is>
       </c>
     </row>
@@ -2487,7 +2555,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>xRAQfc</t>
+          <t>OdPMKs</t>
         </is>
       </c>
     </row>
@@ -2560,7 +2628,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>ActP7Z</t>
+          <t>2WlWg2</t>
         </is>
       </c>
     </row>
@@ -2633,7 +2701,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>D8iFFk</t>
+          <t>ctaNON</t>
         </is>
       </c>
     </row>
@@ -2706,7 +2774,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>5ur20M</t>
+          <t>wY7FGn</t>
         </is>
       </c>
     </row>
@@ -2775,7 +2843,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>yXZ0fJ</t>
+          <t>2QA1qn</t>
         </is>
       </c>
     </row>
@@ -2848,7 +2916,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>ggh8kE</t>
+          <t>tR2aDl</t>
         </is>
       </c>
     </row>
@@ -2921,7 +2989,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>YJFfbt</t>
+          <t>NBP8NB</t>
         </is>
       </c>
     </row>
@@ -2994,7 +3062,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>XpWEQF</t>
+          <t>O75R6X</t>
         </is>
       </c>
     </row>
@@ -3067,7 +3135,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Bnopzg</t>
+          <t>pzLE8r</t>
         </is>
       </c>
     </row>
@@ -3140,7 +3208,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>R8wJib</t>
+          <t>5EAHsY</t>
         </is>
       </c>
     </row>
@@ -3209,7 +3277,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>7QXBv3</t>
+          <t>ADVH0c</t>
         </is>
       </c>
     </row>
@@ -3282,7 +3350,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>DnPCVw</t>
+          <t>YyH0s3</t>
         </is>
       </c>
     </row>
@@ -3351,7 +3419,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>SNRCjQ</t>
+          <t>48xOpo</t>
         </is>
       </c>
     </row>
@@ -3424,7 +3492,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>LHjzIV</t>
+          <t>hQbwEF</t>
         </is>
       </c>
     </row>
@@ -3497,7 +3565,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>0ZdUl9</t>
+          <t>LU4Ush</t>
         </is>
       </c>
     </row>
@@ -3564,7 +3632,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>5vlmVI</t>
+          <t>Cbnw5i</t>
         </is>
       </c>
     </row>
@@ -3637,7 +3705,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>mmMIKl</t>
+          <t>B8T1vX</t>
         </is>
       </c>
     </row>
@@ -3702,7 +3770,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>4dN7tU</t>
+          <t>6OvTeE</t>
         </is>
       </c>
     </row>
@@ -3775,7 +3843,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>CYJDmv</t>
+          <t>yI7s6c</t>
         </is>
       </c>
     </row>
@@ -3840,7 +3908,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>JsCrDx</t>
+          <t>MIc1VT</t>
         </is>
       </c>
     </row>
@@ -3913,7 +3981,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>t1AuHZ</t>
+          <t>c4OrfV</t>
         </is>
       </c>
     </row>
@@ -3986,7 +4054,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>AoWGKu</t>
+          <t>dihoSz</t>
         </is>
       </c>
     </row>
@@ -4059,7 +4127,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>1XpxUQ</t>
+          <t>YwWk5E</t>
         </is>
       </c>
     </row>
@@ -4128,7 +4196,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>nL0cp6</t>
+          <t>dYUmQG</t>
         </is>
       </c>
     </row>
@@ -4197,7 +4265,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>SQPyU3</t>
+          <t>jNqUSG</t>
         </is>
       </c>
     </row>
@@ -4270,7 +4338,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>e1uVac</t>
+          <t>8jy2m5</t>
         </is>
       </c>
     </row>
@@ -4339,7 +4407,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>DHMcm2</t>
+          <t>W3qaR2</t>
         </is>
       </c>
     </row>
@@ -4408,7 +4476,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>oQxM1G</t>
+          <t>lMCCZm</t>
         </is>
       </c>
     </row>
@@ -4481,7 +4549,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>bN2ZfP</t>
+          <t>aTeyDW</t>
         </is>
       </c>
     </row>
@@ -4546,7 +4614,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>DPTuZk</t>
+          <t>QK467g</t>
         </is>
       </c>
     </row>
@@ -4619,7 +4687,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>05Iuif</t>
+          <t>7pFUAn</t>
         </is>
       </c>
     </row>
@@ -4692,7 +4760,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>EoZfwU</t>
+          <t>UCxEGK</t>
         </is>
       </c>
     </row>
@@ -4761,7 +4829,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>0yKUEc</t>
+          <t>yL3Ma6</t>
         </is>
       </c>
     </row>
@@ -4834,7 +4902,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>jqKwZ9</t>
+          <t>z2Qzvn</t>
         </is>
       </c>
     </row>
@@ -4907,7 +4975,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>LymguX</t>
+          <t>vqdY20</t>
         </is>
       </c>
     </row>
@@ -4980,7 +5048,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>eAMqVs</t>
+          <t>r5s93B</t>
         </is>
       </c>
     </row>
@@ -5053,7 +5121,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>xfZjgE</t>
+          <t>BTKFgj</t>
         </is>
       </c>
     </row>
@@ -5126,7 +5194,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>eA980z</t>
+          <t>wZAXtY</t>
         </is>
       </c>
     </row>
@@ -5191,7 +5259,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>4zsugW</t>
+          <t>iNkbEn</t>
         </is>
       </c>
     </row>
@@ -5264,7 +5332,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>jeUSXI</t>
+          <t>z6OV2Z</t>
         </is>
       </c>
     </row>
@@ -5333,7 +5401,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>Nkh7iD</t>
+          <t>Qprazf</t>
         </is>
       </c>
     </row>
@@ -5406,7 +5474,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>V6AgbY</t>
+          <t>JEvoxy</t>
         </is>
       </c>
     </row>
@@ -5475,7 +5543,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>6ZVMeW</t>
+          <t>r7aRZj</t>
         </is>
       </c>
     </row>
@@ -5542,7 +5610,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>4uqDFE</t>
+          <t>bsMsgf</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5683,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>KvkkHN</t>
+          <t>tI8bUW</t>
         </is>
       </c>
     </row>
@@ -5684,7 +5752,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>x6TpKC</t>
+          <t>capOBg</t>
         </is>
       </c>
     </row>
@@ -5757,7 +5825,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>62Ex1A</t>
+          <t>biEKso</t>
         </is>
       </c>
     </row>
@@ -5830,7 +5898,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>hjehUJ</t>
+          <t>QSnPES</t>
         </is>
       </c>
     </row>
@@ -5899,7 +5967,7 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>VSlD8f</t>
+          <t>Abxk43</t>
         </is>
       </c>
     </row>
@@ -5972,7 +6040,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>YRD4Vb</t>
+          <t>2l87n7</t>
         </is>
       </c>
     </row>
@@ -6045,7 +6113,7 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>nKgbaK</t>
+          <t>Zi9P7g</t>
         </is>
       </c>
     </row>
@@ -6118,7 +6186,7 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>DifWoE</t>
+          <t>OZ6T6O</t>
         </is>
       </c>
     </row>
@@ -6191,7 +6259,7 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>IEgQde</t>
+          <t>TYFRcN</t>
         </is>
       </c>
     </row>
@@ -6260,7 +6328,7 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>66kGmy</t>
+          <t>1vEonp</t>
         </is>
       </c>
     </row>
@@ -6329,7 +6397,7 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>vVRMNu</t>
+          <t>FEwIyy</t>
         </is>
       </c>
     </row>
@@ -6398,7 +6466,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>AwErTz</t>
+          <t>e7aJ23</t>
         </is>
       </c>
     </row>
@@ -6471,7 +6539,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>LQ9SvM</t>
+          <t>B0qk7Z</t>
         </is>
       </c>
     </row>
@@ -6540,7 +6608,7 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>GGk3km</t>
+          <t>uQcyFv</t>
         </is>
       </c>
     </row>
@@ -6613,7 +6681,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>ZWNotf</t>
+          <t>FXsyyN</t>
         </is>
       </c>
     </row>
@@ -6678,7 +6746,7 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>9eFhdt</t>
+          <t>m0Ni6y</t>
         </is>
       </c>
     </row>
@@ -6743,7 +6811,7 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>zpWVTC</t>
+          <t>ob4zBR</t>
         </is>
       </c>
     </row>
@@ -6808,7 +6876,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>1WpToJ</t>
+          <t>lgo3sK</t>
         </is>
       </c>
     </row>
@@ -6881,7 +6949,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>BhUggY</t>
+          <t>ZGIOGM</t>
         </is>
       </c>
     </row>
@@ -6954,7 +7022,7 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>KTo00j</t>
+          <t>pIvZId</t>
         </is>
       </c>
     </row>
@@ -7027,7 +7095,7 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>OjT7bu</t>
+          <t>b6768W</t>
         </is>
       </c>
     </row>
@@ -7100,7 +7168,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>6UpRtq</t>
+          <t>13PrBa</t>
         </is>
       </c>
     </row>
@@ -7173,7 +7241,7 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>dWQjPl</t>
+          <t>ZT7sqv</t>
         </is>
       </c>
     </row>
@@ -7242,7 +7310,7 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>fSB0jm</t>
+          <t>zQiIjU</t>
         </is>
       </c>
     </row>
@@ -7307,7 +7375,7 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>Eli1IS</t>
+          <t>BS1OG4</t>
         </is>
       </c>
     </row>
@@ -7372,7 +7440,7 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>N9D3OV</t>
+          <t>CizdqZ</t>
         </is>
       </c>
     </row>
@@ -7442,7 +7510,7 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>pxf86N</t>
+          <t>DaGcOO</t>
         </is>
       </c>
     </row>
@@ -7511,7 +7579,7 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>PspZoe</t>
+          <t>uwUSwQ</t>
         </is>
       </c>
     </row>
@@ -7584,7 +7652,7 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>rKj7Mq</t>
+          <t>iZxfCn</t>
         </is>
       </c>
     </row>
@@ -7653,7 +7721,7 @@
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>GBxQku</t>
+          <t>rbF1Me</t>
         </is>
       </c>
     </row>
@@ -7726,7 +7794,7 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>wks330</t>
+          <t>dSmbNk</t>
         </is>
       </c>
     </row>
@@ -7799,7 +7867,7 @@
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>MbEGgY</t>
+          <t>qsv2UD</t>
         </is>
       </c>
     </row>
@@ -7872,7 +7940,7 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>q0tP4L</t>
+          <t>btoUBd</t>
         </is>
       </c>
     </row>
@@ -7941,7 +8009,7 @@
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>a4mddn</t>
+          <t>IzEv7a</t>
         </is>
       </c>
     </row>
@@ -8010,7 +8078,7 @@
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>zLAvwn</t>
+          <t>xwRYGb</t>
         </is>
       </c>
     </row>
@@ -8079,7 +8147,7 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>jGqhLT</t>
+          <t>2QFSfG</t>
         </is>
       </c>
     </row>
@@ -8152,7 +8220,7 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>9tWidR</t>
+          <t>YlU3pp</t>
         </is>
       </c>
     </row>
@@ -8225,7 +8293,7 @@
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>D0bFP8</t>
+          <t>8WO6Gy</t>
         </is>
       </c>
     </row>
@@ -8294,7 +8362,7 @@
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>yucOOE</t>
+          <t>dXQ5B4</t>
         </is>
       </c>
     </row>
@@ -8367,7 +8435,7 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>DNSNri</t>
+          <t>nqS3UP</t>
         </is>
       </c>
     </row>
@@ -8436,7 +8504,7 @@
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>1I7t0G</t>
+          <t>2YU14J</t>
         </is>
       </c>
     </row>
@@ -8509,7 +8577,7 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>L0aVAJ</t>
+          <t>EsMRBW</t>
         </is>
       </c>
     </row>
@@ -8578,7 +8646,7 @@
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>E3pFep</t>
+          <t>Ijp8ME</t>
         </is>
       </c>
     </row>
@@ -8651,7 +8719,7 @@
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>DwFQM8</t>
+          <t>IRGxBD</t>
         </is>
       </c>
     </row>
@@ -8724,7 +8792,7 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>plpSx9</t>
+          <t>3Mf6WN</t>
         </is>
       </c>
     </row>
@@ -8797,7 +8865,7 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>PzoPbQ</t>
+          <t>OtcEqC</t>
         </is>
       </c>
     </row>
@@ -8868,7 +8936,7 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>QFp9V5</t>
+          <t>ThM2LW</t>
         </is>
       </c>
     </row>
@@ -8941,7 +9009,7 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>EUk4QX</t>
+          <t>fFCaVv</t>
         </is>
       </c>
     </row>
@@ -9010,7 +9078,7 @@
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>0JnJ8L</t>
+          <t>DjX04F</t>
         </is>
       </c>
     </row>
@@ -9075,7 +9143,7 @@
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>C3mt8B</t>
+          <t>SbTUtc</t>
         </is>
       </c>
     </row>
@@ -9140,7 +9208,7 @@
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>ecw7ro</t>
+          <t>NX07GR</t>
         </is>
       </c>
     </row>
@@ -9210,7 +9278,7 @@
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>MBap7U</t>
+          <t>SbJRpL</t>
         </is>
       </c>
     </row>
@@ -9281,7 +9349,7 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>ksUOWn</t>
+          <t>qca4cl</t>
         </is>
       </c>
     </row>
@@ -9354,7 +9422,7 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>oUsN9L</t>
+          <t>utQKZ5</t>
         </is>
       </c>
     </row>
@@ -9427,7 +9495,7 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>M2ai3s</t>
+          <t>rFgl2P</t>
         </is>
       </c>
     </row>
@@ -9496,7 +9564,7 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>IfRNw0</t>
+          <t>afzeOw</t>
         </is>
       </c>
     </row>
@@ -9565,7 +9633,7 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>7RBHNU</t>
+          <t>w3Lei0</t>
         </is>
       </c>
     </row>
@@ -9638,7 +9706,7 @@
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>xvKPdg</t>
+          <t>n16PmS</t>
         </is>
       </c>
     </row>
@@ -9707,7 +9775,7 @@
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>reqwec</t>
+          <t>pOOazO</t>
         </is>
       </c>
     </row>
@@ -9776,7 +9844,7 @@
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>9ga7VE</t>
+          <t>uYMomX</t>
         </is>
       </c>
     </row>
@@ -9845,7 +9913,7 @@
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>fbvka8</t>
+          <t>cRq1Te</t>
         </is>
       </c>
     </row>
@@ -9918,7 +9986,7 @@
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>janeuS</t>
+          <t>WUuoYo</t>
         </is>
       </c>
     </row>
@@ -9987,7 +10055,7 @@
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>P8K0ey</t>
+          <t>CUINSb</t>
         </is>
       </c>
     </row>
@@ -10060,7 +10128,7 @@
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>Ewlj8X</t>
+          <t>MCVCq7</t>
         </is>
       </c>
     </row>
@@ -10129,7 +10197,7 @@
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>ZAMor2</t>
+          <t>atLAJs</t>
         </is>
       </c>
     </row>
@@ -10198,7 +10266,7 @@
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>Dpj0Oj</t>
+          <t>nWGVr6</t>
         </is>
       </c>
     </row>
@@ -10271,7 +10339,7 @@
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>h3OKnE</t>
+          <t>jpuu6l</t>
         </is>
       </c>
     </row>
@@ -10340,7 +10408,7 @@
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>GE8wPL</t>
+          <t>hUFS2v</t>
         </is>
       </c>
     </row>
@@ -10409,7 +10477,7 @@
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>rQ2Bzo</t>
+          <t>JFU4i3</t>
         </is>
       </c>
     </row>
@@ -10482,7 +10550,7 @@
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>9d2jJM</t>
+          <t>xcTNEF</t>
         </is>
       </c>
     </row>
@@ -10555,7 +10623,7 @@
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>dZ2gSm</t>
+          <t>9JTIVR</t>
         </is>
       </c>
     </row>
@@ -10628,7 +10696,7 @@
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>4gfV1I</t>
+          <t>Bn678j</t>
         </is>
       </c>
     </row>
@@ -10697,7 +10765,7 @@
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>joEFag</t>
+          <t>MfB5Qi</t>
         </is>
       </c>
     </row>
@@ -10766,7 +10834,7 @@
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>EERHUK</t>
+          <t>0h82L9</t>
         </is>
       </c>
     </row>
@@ -10839,7 +10907,7 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>DU4c4r</t>
+          <t>sdmeRE</t>
         </is>
       </c>
     </row>
@@ -10912,7 +10980,7 @@
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>sGlBoZ</t>
+          <t>eyYYmp</t>
         </is>
       </c>
     </row>
@@ -10981,7 +11049,7 @@
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>8XZF6F</t>
+          <t>rdM8J1</t>
         </is>
       </c>
     </row>
@@ -11050,7 +11118,7 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>D3tcPP</t>
+          <t>D2sKUj</t>
         </is>
       </c>
     </row>
@@ -11124,7 +11192,7 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>Pt7w26</t>
+          <t>GxjEtl</t>
         </is>
       </c>
     </row>
@@ -11189,7 +11257,7 @@
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>rRbbxr</t>
+          <t>3JgfRG</t>
         </is>
       </c>
     </row>
@@ -11262,7 +11330,7 @@
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>XogDKQ</t>
+          <t>70QOPu</t>
         </is>
       </c>
     </row>
@@ -11331,7 +11399,7 @@
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>hzmtc4</t>
+          <t>6E9sYB</t>
         </is>
       </c>
     </row>
@@ -11404,7 +11472,7 @@
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>aMTcmE</t>
+          <t>6YsxMl</t>
         </is>
       </c>
     </row>
@@ -11473,7 +11541,7 @@
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>6LEjFI</t>
+          <t>phXpHx</t>
         </is>
       </c>
     </row>
@@ -11546,7 +11614,7 @@
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>tSRoPm</t>
+          <t>5IOlua</t>
         </is>
       </c>
     </row>
@@ -11619,7 +11687,7 @@
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>FX0Yvm</t>
+          <t>wFLcUV</t>
         </is>
       </c>
     </row>
@@ -11684,7 +11752,7 @@
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>7toJpp</t>
+          <t>19n28R</t>
         </is>
       </c>
     </row>
@@ -11757,7 +11825,7 @@
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>JQSITr</t>
+          <t>1f4i6C</t>
         </is>
       </c>
     </row>
@@ -11826,7 +11894,7 @@
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>V5AANP</t>
+          <t>tl885m</t>
         </is>
       </c>
     </row>
@@ -11895,7 +11963,7 @@
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>SAdfcG</t>
+          <t>JVJGGe</t>
         </is>
       </c>
     </row>
@@ -11968,7 +12036,7 @@
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>HvQiyC</t>
+          <t>28pU9J</t>
         </is>
       </c>
     </row>
@@ -12041,7 +12109,7 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>mD30oD</t>
+          <t>FF5l0f</t>
         </is>
       </c>
     </row>
@@ -12114,7 +12182,7 @@
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>aUQBEY</t>
+          <t>ApFKWB</t>
         </is>
       </c>
     </row>
@@ -12187,7 +12255,7 @@
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>MTYKT3</t>
+          <t>ARmEWO</t>
         </is>
       </c>
     </row>
@@ -12257,7 +12325,7 @@
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>5Aa9i9</t>
+          <t>mC8fDt</t>
         </is>
       </c>
     </row>
@@ -12330,7 +12398,7 @@
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>Rjidys</t>
+          <t>fEwk96</t>
         </is>
       </c>
     </row>
@@ -12399,7 +12467,7 @@
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>V3qRqX</t>
+          <t>8xzTvL</t>
         </is>
       </c>
     </row>
@@ -12469,7 +12537,7 @@
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>YVIBdV</t>
+          <t>5upMbk</t>
         </is>
       </c>
     </row>
@@ -12542,7 +12610,7 @@
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>3KYFcC</t>
+          <t>Ow8evu</t>
         </is>
       </c>
     </row>
@@ -12607,7 +12675,7 @@
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>i5f7Uu</t>
+          <t>dYsOtI</t>
         </is>
       </c>
     </row>
@@ -12672,7 +12740,7 @@
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>FKtY7j</t>
+          <t>XWEF9A</t>
         </is>
       </c>
     </row>
@@ -12745,7 +12813,7 @@
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>4CZU8y</t>
+          <t>A9ZBIJ</t>
         </is>
       </c>
     </row>
@@ -12818,7 +12886,7 @@
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>K4VuDK</t>
+          <t>npN6jS</t>
         </is>
       </c>
     </row>
@@ -12887,7 +12955,7 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>froPm4</t>
+          <t>GbscoF</t>
         </is>
       </c>
     </row>
@@ -12960,7 +13028,7 @@
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>VgLBev</t>
+          <t>e8dYhb</t>
         </is>
       </c>
     </row>
@@ -13033,7 +13101,7 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>XOvL12</t>
+          <t>9zPbCb</t>
         </is>
       </c>
     </row>
@@ -13107,7 +13175,7 @@
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>s6e4Qp</t>
+          <t>89hh7O</t>
         </is>
       </c>
     </row>
@@ -13180,7 +13248,7 @@
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>94Bge7</t>
+          <t>D2qzP5</t>
         </is>
       </c>
     </row>
@@ -13249,7 +13317,7 @@
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>iiC40c</t>
+          <t>wEnZSW</t>
         </is>
       </c>
     </row>
@@ -13322,7 +13390,7 @@
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>LjhzGU</t>
+          <t>kjtdAE</t>
         </is>
       </c>
     </row>
@@ -13395,7 +13463,7 @@
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>TLvnEo</t>
+          <t>WSZdLz</t>
         </is>
       </c>
     </row>
@@ -13464,7 +13532,7 @@
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>HFh9qm</t>
+          <t>57hDhx</t>
         </is>
       </c>
     </row>
@@ -13537,7 +13605,7 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>gEObgW</t>
+          <t>AqAQZm</t>
         </is>
       </c>
     </row>
@@ -13606,7 +13674,7 @@
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>A4NrxX</t>
+          <t>qbV9A3</t>
         </is>
       </c>
     </row>
@@ -13679,7 +13747,7 @@
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>KTIdqN</t>
+          <t>pRWlc9</t>
         </is>
       </c>
     </row>
@@ -13748,7 +13816,7 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>tG9ZoF</t>
+          <t>ke3ydx</t>
         </is>
       </c>
     </row>
@@ -13821,7 +13889,7 @@
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>mOCgiT</t>
+          <t>6dfEQe</t>
         </is>
       </c>
     </row>
@@ -13894,7 +13962,7 @@
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>PmgcLc</t>
+          <t>mjJyEc</t>
         </is>
       </c>
     </row>
@@ -13963,7 +14031,7 @@
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>13CYrC</t>
+          <t>I169tE</t>
         </is>
       </c>
     </row>
@@ -14032,7 +14100,7 @@
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>bIIIzg</t>
+          <t>d3nTRb</t>
         </is>
       </c>
     </row>
@@ -14101,7 +14169,7 @@
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>sLEPaj</t>
+          <t>ZazRBR</t>
         </is>
       </c>
     </row>
@@ -14174,7 +14242,7 @@
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>6k7gIc</t>
+          <t>Z3r1uR</t>
         </is>
       </c>
     </row>
@@ -14248,7 +14316,7 @@
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>MaFBVa</t>
+          <t>OtjwNe</t>
         </is>
       </c>
     </row>
@@ -14317,7 +14385,7 @@
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>tWFBBv</t>
+          <t>SSfrF0</t>
         </is>
       </c>
     </row>
@@ -14390,7 +14458,7 @@
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>n0SdQz</t>
+          <t>wXrPoA</t>
         </is>
       </c>
     </row>
@@ -14459,7 +14527,7 @@
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>76jDWo</t>
+          <t>eMxoyQ</t>
         </is>
       </c>
     </row>
@@ -14528,7 +14596,7 @@
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>bU7VaB</t>
+          <t>F8YnO4</t>
         </is>
       </c>
     </row>
@@ -14593,7 +14661,7 @@
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>kRzVaz</t>
+          <t>6M0P8h</t>
         </is>
       </c>
     </row>
@@ -14666,7 +14734,7 @@
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>PFm8iW</t>
+          <t>FyDbQh</t>
         </is>
       </c>
     </row>
@@ -14739,7 +14807,7 @@
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>bIrl4x</t>
+          <t>HPAr0x</t>
         </is>
       </c>
     </row>
@@ -14812,7 +14880,7 @@
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>w6UBW9</t>
+          <t>Hdnr9I</t>
         </is>
       </c>
     </row>
@@ -14877,7 +14945,7 @@
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>NYIi9x</t>
+          <t>wPqnPd</t>
         </is>
       </c>
     </row>
@@ -14942,7 +15010,7 @@
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>kIhSXs</t>
+          <t>xLG1sg</t>
         </is>
       </c>
     </row>
@@ -15011,7 +15079,7 @@
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>EeWUuQ</t>
+          <t>onozlU</t>
         </is>
       </c>
     </row>
@@ -15084,7 +15152,7 @@
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>xdlqu5</t>
+          <t>OuSawD</t>
         </is>
       </c>
     </row>
@@ -15157,7 +15225,7 @@
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>Ej5hzm</t>
+          <t>lbByIS</t>
         </is>
       </c>
     </row>
@@ -15230,7 +15298,7 @@
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>ILVZs4</t>
+          <t>rMAiZD</t>
         </is>
       </c>
     </row>
@@ -15303,7 +15371,7 @@
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>VXTcAI</t>
+          <t>2ddNHQ</t>
         </is>
       </c>
     </row>
@@ -15376,7 +15444,7 @@
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>I0x9LQ</t>
+          <t>CUZsxA</t>
         </is>
       </c>
     </row>
@@ -15446,7 +15514,7 @@
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>mvIMWe</t>
+          <t>YolazU</t>
         </is>
       </c>
     </row>
@@ -15515,7 +15583,7 @@
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>or6YUE</t>
+          <t>zAqrzA</t>
         </is>
       </c>
     </row>
@@ -15584,7 +15652,7 @@
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>4cyn1e</t>
+          <t>objG6L</t>
         </is>
       </c>
     </row>
@@ -15657,7 +15725,7 @@
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>4yR77T</t>
+          <t>w8wEfJ</t>
         </is>
       </c>
     </row>
@@ -15730,7 +15798,7 @@
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>pmoeJ1</t>
+          <t>XquNIK</t>
         </is>
       </c>
     </row>
@@ -15803,7 +15871,7 @@
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>JKpAjZ</t>
+          <t>NSHA5P</t>
         </is>
       </c>
     </row>
@@ -15872,7 +15940,7 @@
       </c>
       <c r="O219" t="inlineStr">
         <is>
-          <t>3ZmhFg</t>
+          <t>Jrjjrf</t>
         </is>
       </c>
     </row>
@@ -15941,7 +16009,7 @@
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>apNr0C</t>
+          <t>MyqrhX</t>
         </is>
       </c>
     </row>
@@ -16010,7 +16078,7 @@
       </c>
       <c r="O221" t="inlineStr">
         <is>
-          <t>lWE1pV</t>
+          <t>ZSbmQo</t>
         </is>
       </c>
     </row>
@@ -16083,7 +16151,7 @@
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>DugDXM</t>
+          <t>WkZZ2h</t>
         </is>
       </c>
     </row>
@@ -16156,7 +16224,7 @@
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>vw8XSY</t>
+          <t>E5YJGP</t>
         </is>
       </c>
     </row>
@@ -16229,7 +16297,7 @@
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>wFHMCV</t>
+          <t>DwwhSP</t>
         </is>
       </c>
     </row>
@@ -16302,7 +16370,7 @@
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>JQW49l</t>
+          <t>V8Jty8</t>
         </is>
       </c>
     </row>
@@ -16375,7 +16443,7 @@
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>6dGnAF</t>
+          <t>bXmN6U</t>
         </is>
       </c>
     </row>
@@ -16444,7 +16512,7 @@
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>S0WuBt</t>
+          <t>jxaU9H</t>
         </is>
       </c>
     </row>
@@ -16517,7 +16585,7 @@
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>wEaE6j</t>
+          <t>O6LGdP</t>
         </is>
       </c>
     </row>
@@ -16591,7 +16659,7 @@
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>RRhayL</t>
+          <t>f5lQVd</t>
         </is>
       </c>
     </row>
@@ -16656,7 +16724,7 @@
       </c>
       <c r="O230" t="inlineStr">
         <is>
-          <t>hXgTuS</t>
+          <t>UpnbNa</t>
         </is>
       </c>
     </row>
@@ -16730,7 +16798,7 @@
       </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>ASer9H</t>
+          <t>Qu9dyz</t>
         </is>
       </c>
     </row>
@@ -16803,7 +16871,7 @@
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>OlpSJ0</t>
+          <t>RyihkC</t>
         </is>
       </c>
     </row>
@@ -16872,7 +16940,7 @@
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>VEOSUr</t>
+          <t>EsppAq</t>
         </is>
       </c>
     </row>
@@ -16937,7 +17005,7 @@
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>Ndxok4</t>
+          <t>aRenOC</t>
         </is>
       </c>
     </row>
@@ -17002,7 +17070,7 @@
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>cSxmtl</t>
+          <t>I7TmxK</t>
         </is>
       </c>
     </row>
@@ -17075,7 +17143,7 @@
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>hLCIWq</t>
+          <t>yRRtLT</t>
         </is>
       </c>
     </row>
@@ -17145,7 +17213,7 @@
       </c>
       <c r="O237" t="inlineStr">
         <is>
-          <t>4k5sEE</t>
+          <t>kPPmu8</t>
         </is>
       </c>
     </row>
@@ -17218,7 +17286,7 @@
       </c>
       <c r="O238" t="inlineStr">
         <is>
-          <t>aQeI9F</t>
+          <t>uIL3Ge</t>
         </is>
       </c>
     </row>
@@ -17291,7 +17359,7 @@
       </c>
       <c r="O239" t="inlineStr">
         <is>
-          <t>kH0CNn</t>
+          <t>rnTTiy</t>
         </is>
       </c>
     </row>
@@ -17364,7 +17432,7 @@
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>ivccIz</t>
+          <t>1PCfIy</t>
         </is>
       </c>
     </row>
@@ -17429,7 +17497,7 @@
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>f3dsAM</t>
+          <t>dbI9IH</t>
         </is>
       </c>
     </row>
@@ -17498,7 +17566,7 @@
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>1v90YW</t>
+          <t>HIokzC</t>
         </is>
       </c>
     </row>
@@ -17567,7 +17635,7 @@
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>8aMH6D</t>
+          <t>pKoc4I</t>
         </is>
       </c>
     </row>
@@ -17640,7 +17708,7 @@
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>Xys8nm</t>
+          <t>Rgs2hg</t>
         </is>
       </c>
     </row>
@@ -17713,7 +17781,7 @@
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>lCoCeO</t>
+          <t>D3SPjA</t>
         </is>
       </c>
     </row>
@@ -17786,7 +17854,7 @@
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>hVQ0Fp</t>
+          <t>eNSP4R</t>
         </is>
       </c>
     </row>
@@ -17859,7 +17927,7 @@
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>OWDXke</t>
+          <t>rA64sc</t>
         </is>
       </c>
     </row>
@@ -17928,7 +17996,7 @@
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>iZuczD</t>
+          <t>0wDbSv</t>
         </is>
       </c>
     </row>
@@ -18001,7 +18069,7 @@
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>NzvXIy</t>
+          <t>EbGMDD</t>
         </is>
       </c>
     </row>
@@ -18074,7 +18142,7 @@
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>4t25mh</t>
+          <t>WkNMOI</t>
         </is>
       </c>
     </row>
@@ -18145,7 +18213,7 @@
       </c>
       <c r="O251" t="inlineStr">
         <is>
-          <t>rmojkD</t>
+          <t>rTF8sk</t>
         </is>
       </c>
     </row>
@@ -18214,7 +18282,7 @@
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>x3uAZd</t>
+          <t>GXJW33</t>
         </is>
       </c>
     </row>
@@ -18287,7 +18355,7 @@
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>KlWmSg</t>
+          <t>1HIKLK</t>
         </is>
       </c>
     </row>
@@ -18356,7 +18424,7 @@
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>Vf9ABA</t>
+          <t>kH6lch</t>
         </is>
       </c>
     </row>
@@ -18425,7 +18493,7 @@
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>rFhBP4</t>
+          <t>lQwcCF</t>
         </is>
       </c>
     </row>
@@ -18498,7 +18566,7 @@
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>LDcvsy</t>
+          <t>Vi7t0L</t>
         </is>
       </c>
     </row>
@@ -18567,7 +18635,7 @@
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>ZXLuzj</t>
+          <t>1DlN7f</t>
         </is>
       </c>
     </row>
@@ -18640,7 +18708,7 @@
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>mYwx8V</t>
+          <t>gSXZfR</t>
         </is>
       </c>
     </row>
@@ -18713,7 +18781,7 @@
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>FBIHa8</t>
+          <t>jnGZpj</t>
         </is>
       </c>
     </row>
@@ -18786,7 +18854,7 @@
       </c>
       <c r="O260" t="inlineStr">
         <is>
-          <t>4LPBFQ</t>
+          <t>yii7tU</t>
         </is>
       </c>
     </row>
@@ -18855,7 +18923,7 @@
       </c>
       <c r="O261" t="inlineStr">
         <is>
-          <t>IENrhO</t>
+          <t>k5THzP</t>
         </is>
       </c>
     </row>
@@ -18924,7 +18992,7 @@
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>enX0z1</t>
+          <t>Dzeett</t>
         </is>
       </c>
     </row>
@@ -18997,7 +19065,7 @@
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>LP3hnE</t>
+          <t>ZcdMY8</t>
         </is>
       </c>
     </row>
@@ -19070,7 +19138,7 @@
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>S4CKHl</t>
+          <t>zijaWK</t>
         </is>
       </c>
     </row>
@@ -19135,7 +19203,7 @@
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>un7ccb</t>
+          <t>MeHbZ8</t>
         </is>
       </c>
     </row>
@@ -19208,7 +19276,7 @@
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>ETbrZa</t>
+          <t>7TuRIz</t>
         </is>
       </c>
     </row>
@@ -19282,7 +19350,7 @@
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>qnWBoU</t>
+          <t>eCFMJ9</t>
         </is>
       </c>
     </row>
@@ -19355,7 +19423,7 @@
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>PDIOkJ</t>
+          <t>SFJOU1</t>
         </is>
       </c>
     </row>
@@ -19428,7 +19496,7 @@
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>siuxqd</t>
+          <t>9ZSjFu</t>
         </is>
       </c>
     </row>
@@ -19501,7 +19569,7 @@
       </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>1RrvVZ</t>
+          <t>VZe5jc</t>
         </is>
       </c>
     </row>
@@ -19574,7 +19642,7 @@
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>Kw0L3Z</t>
+          <t>ygEfCi</t>
         </is>
       </c>
     </row>
@@ -19647,7 +19715,7 @@
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>BEH9ha</t>
+          <t>qjebW7</t>
         </is>
       </c>
     </row>
@@ -19716,7 +19784,7 @@
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>udxHBX</t>
+          <t>6bm9xn</t>
         </is>
       </c>
     </row>
@@ -19781,7 +19849,7 @@
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>pjDyi3</t>
+          <t>JQz5wq</t>
         </is>
       </c>
     </row>

--- a/data/jadwal_sidang/Jadwal Sidang Terjadwal 1 3 dan reg Juli 2020 v9 Juli 2020_pwd.xlsx
+++ b/data/jadwal_sidang/Jadwal Sidang Terjadwal 1 3 dan reg Juli 2020 v9 Juli 2020_pwd.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -580,7 +580,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>7jjF75</t>
+          <t>j481dK</t>
         </is>
       </c>
     </row>
@@ -654,7 +654,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>QH2vqs</t>
+          <t>IBrGgS</t>
         </is>
       </c>
     </row>
@@ -727,7 +727,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>UnPSZ0</t>
+          <t>IYtWd3</t>
         </is>
       </c>
     </row>
@@ -800,7 +800,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>cEr2bQ</t>
+          <t>Gfzgbt</t>
         </is>
       </c>
     </row>
@@ -874,7 +874,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Qfnmu9</t>
+          <t>RVmwV5</t>
         </is>
       </c>
     </row>
@@ -905,7 +905,9 @@
           <t>MMA</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr"/>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
       <c r="H7" t="inlineStr">
         <is>
           <t>HHN</t>
@@ -943,7 +945,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>700an7</t>
+          <t>K1Uakr</t>
         </is>
       </c>
     </row>
@@ -959,7 +961,9 @@
       <c r="C8" t="n">
         <v>1301154408</v>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>SIDE</t>
@@ -970,7 +974,9 @@
           <t>IBR</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr"/>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
       <c r="H8" t="inlineStr">
         <is>
           <t>APK</t>
@@ -1008,7 +1014,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Xvsa10</t>
+          <t>YzryIA</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1087,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>e1q6pt</t>
+          <t>xC9aNb</t>
         </is>
       </c>
     </row>
@@ -1112,7 +1118,9 @@
           <t>ADE</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr"/>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
       <c r="H10" t="inlineStr">
         <is>
           <t>RSM</t>
@@ -1150,7 +1158,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Z1fy5P</t>
+          <t>iG7Sv4</t>
         </is>
       </c>
     </row>
@@ -1166,7 +1174,9 @@
       <c r="C11" t="n">
         <v>1301160784</v>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>TELE</t>
@@ -1177,7 +1187,9 @@
           <t>MMA</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr"/>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
       <c r="H11" t="inlineStr">
         <is>
           <t>DWS</t>
@@ -1215,7 +1227,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>ZdTdw2</t>
+          <t>5BXNif</t>
         </is>
       </c>
     </row>
@@ -1246,7 +1258,9 @@
           <t>NKN</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr"/>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
       <c r="H12" t="inlineStr">
         <is>
           <t>EMJ</t>
@@ -1284,7 +1298,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2LWRzx</t>
+          <t>kCLWo2</t>
         </is>
       </c>
     </row>
@@ -1357,7 +1371,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>ztOiZq</t>
+          <t>PDkX1a</t>
         </is>
       </c>
     </row>
@@ -1431,7 +1445,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>WU7P3R</t>
+          <t>AXpHDU</t>
         </is>
       </c>
     </row>
@@ -1447,7 +1461,9 @@
       <c r="C15" t="n">
         <v>1301154302</v>
       </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>TELE</t>
@@ -1500,7 +1516,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>XASEkY</t>
+          <t>tt5Qzs</t>
         </is>
       </c>
     </row>
@@ -1516,7 +1532,9 @@
       <c r="C16" t="n">
         <v>1301164299</v>
       </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>ICM</t>
@@ -1569,7 +1587,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>sItmmn</t>
+          <t>C40mEd</t>
         </is>
       </c>
     </row>
@@ -1642,7 +1660,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>b3OseO</t>
+          <t>wzQt5p</t>
         </is>
       </c>
     </row>
@@ -1673,7 +1691,9 @@
           <t>KMM</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr"/>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
       <c r="H18" t="inlineStr">
         <is>
           <t>ERW</t>
@@ -1711,7 +1731,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>r9gv5U</t>
+          <t>bdoXZX</t>
         </is>
       </c>
     </row>
@@ -1727,7 +1747,9 @@
       <c r="C19" t="n">
         <v>1103130034</v>
       </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
       <c r="E19" t="inlineStr">
         <is>
           <t>MCE</t>
@@ -1738,7 +1760,9 @@
           <t>YLS</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr"/>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
       <c r="H19" t="inlineStr">
         <is>
           <t>RFU</t>
@@ -1776,7 +1800,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Uo1K0p</t>
+          <t>564ro2</t>
         </is>
       </c>
     </row>
@@ -1849,7 +1873,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>IX2dPl</t>
+          <t>VadDAS</t>
         </is>
       </c>
     </row>
@@ -1922,7 +1946,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>NQh5f8</t>
+          <t>snwml7</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1962,9 @@
       <c r="C22" t="n">
         <v>1301154153</v>
       </c>
-      <c r="D22" t="inlineStr"/>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
       <c r="E22" t="inlineStr">
         <is>
           <t>SIDE</t>
@@ -1949,7 +1975,9 @@
           <t>WRH</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr"/>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
       <c r="H22" t="inlineStr">
         <is>
           <t>KMS</t>
@@ -1987,7 +2015,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>JStLNn</t>
+          <t>ymYCib</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2046,9 @@
           <t>YLS</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr"/>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
       <c r="H23" t="inlineStr">
         <is>
           <t>ERW</t>
@@ -2056,7 +2086,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>S4FMxZ</t>
+          <t>Q1UHUr</t>
         </is>
       </c>
     </row>
@@ -2087,7 +2117,9 @@
           <t>ADE</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr"/>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
       <c r="H24" t="inlineStr">
         <is>
           <t>FAR</t>
@@ -2125,7 +2157,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Cto85C</t>
+          <t>jqT8DW</t>
         </is>
       </c>
     </row>
@@ -2198,7 +2230,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>fTdGnX</t>
+          <t>Whx2Hs</t>
         </is>
       </c>
     </row>
@@ -2271,7 +2303,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>lGlHGL</t>
+          <t>e99O9X</t>
         </is>
       </c>
     </row>
@@ -2287,7 +2319,9 @@
       <c r="C27" t="n">
         <v>1301160413</v>
       </c>
-      <c r="D27" t="inlineStr"/>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
       <c r="E27" t="inlineStr">
         <is>
           <t>MCE</t>
@@ -2340,7 +2374,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>4LfCPL</t>
+          <t>EHz3Fp</t>
         </is>
       </c>
     </row>
@@ -2356,7 +2390,9 @@
       <c r="C28" t="n">
         <v>1301164657</v>
       </c>
-      <c r="D28" t="inlineStr"/>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
       <c r="E28" t="inlineStr">
         <is>
           <t>MCE</t>
@@ -2409,7 +2445,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>mfuF0Q</t>
+          <t>6CGee8</t>
         </is>
       </c>
     </row>
@@ -2482,7 +2518,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>QxSOVe</t>
+          <t>uv3MPF</t>
         </is>
       </c>
     </row>
@@ -2555,7 +2591,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>OdPMKs</t>
+          <t>zTfuui</t>
         </is>
       </c>
     </row>
@@ -2628,7 +2664,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2WlWg2</t>
+          <t>n8Vyyw</t>
         </is>
       </c>
     </row>
@@ -2701,7 +2737,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>ctaNON</t>
+          <t>9F1yr2</t>
         </is>
       </c>
     </row>
@@ -2774,7 +2810,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>wY7FGn</t>
+          <t>tz550E</t>
         </is>
       </c>
     </row>
@@ -2790,7 +2826,9 @@
       <c r="C34" t="n">
         <v>1301164608</v>
       </c>
-      <c r="D34" t="inlineStr"/>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
       <c r="E34" t="inlineStr">
         <is>
           <t>TELE</t>
@@ -2843,7 +2881,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2QA1qn</t>
+          <t>ahTyUQ</t>
         </is>
       </c>
     </row>
@@ -2916,7 +2954,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>tR2aDl</t>
+          <t>T9Qp6a</t>
         </is>
       </c>
     </row>
@@ -2989,7 +3027,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>NBP8NB</t>
+          <t>YoXvw7</t>
         </is>
       </c>
     </row>
@@ -3062,7 +3100,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>O75R6X</t>
+          <t>LiCrjk</t>
         </is>
       </c>
     </row>
@@ -3135,7 +3173,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>pzLE8r</t>
+          <t>HsjvYP</t>
         </is>
       </c>
     </row>
@@ -3208,7 +3246,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>5EAHsY</t>
+          <t>GeEwAR</t>
         </is>
       </c>
     </row>
@@ -3224,7 +3262,9 @@
       <c r="C40" t="n">
         <v>1301160792</v>
       </c>
-      <c r="D40" t="inlineStr"/>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
       <c r="E40" t="inlineStr">
         <is>
           <t>MCE</t>
@@ -3277,7 +3317,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>ADVH0c</t>
+          <t>GQ5Hoz</t>
         </is>
       </c>
     </row>
@@ -3350,7 +3390,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>YyH0s3</t>
+          <t>eE4HNJ</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3406,9 @@
       <c r="C42" t="n">
         <v>1301160805</v>
       </c>
-      <c r="D42" t="inlineStr"/>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
       <c r="E42" t="inlineStr">
         <is>
           <t>TELE</t>
@@ -3419,7 +3461,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>48xOpo</t>
+          <t>aC3QKf</t>
         </is>
       </c>
     </row>
@@ -3492,7 +3534,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>hQbwEF</t>
+          <t>5KRjxo</t>
         </is>
       </c>
     </row>
@@ -3565,12 +3607,14 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>LU4Ush</t>
+          <t>LbHvsP</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr"/>
+      <c r="A45" t="n">
+        <v>0</v>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>MAIDARMAN</t>
@@ -3579,7 +3623,9 @@
       <c r="C45" t="n">
         <v>1301140298</v>
       </c>
-      <c r="D45" t="inlineStr"/>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
       <c r="E45" t="inlineStr">
         <is>
           <t>SIDE</t>
@@ -3632,7 +3678,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Cbnw5i</t>
+          <t>71MiDJ</t>
         </is>
       </c>
     </row>
@@ -3705,7 +3751,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>B8T1vX</t>
+          <t>YSHayv</t>
         </is>
       </c>
     </row>
@@ -3721,7 +3767,9 @@
       <c r="C47" t="n">
         <v>1301160438</v>
       </c>
-      <c r="D47" t="inlineStr"/>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
       <c r="E47" t="inlineStr">
         <is>
           <t>MCE</t>
@@ -3732,7 +3780,9 @@
           <t>KMM</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr"/>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
       <c r="H47" t="inlineStr">
         <is>
           <t>TSA</t>
@@ -3770,7 +3820,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>6OvTeE</t>
+          <t>upMmTj</t>
         </is>
       </c>
     </row>
@@ -3843,7 +3893,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>yI7s6c</t>
+          <t>kR7A91</t>
         </is>
       </c>
     </row>
@@ -3859,7 +3909,9 @@
       <c r="C49" t="n">
         <v>1301154226</v>
       </c>
-      <c r="D49" t="inlineStr"/>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
       <c r="E49" t="inlineStr">
         <is>
           <t>MCE</t>
@@ -3870,7 +3922,9 @@
           <t>YLS</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr"/>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
       <c r="H49" t="inlineStr">
         <is>
           <t>ERW</t>
@@ -3908,7 +3962,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>MIc1VT</t>
+          <t>BbN3kK</t>
         </is>
       </c>
     </row>
@@ -3981,7 +4035,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>c4OrfV</t>
+          <t>lu9XU3</t>
         </is>
       </c>
     </row>
@@ -4054,7 +4108,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>dihoSz</t>
+          <t>CPIJeA</t>
         </is>
       </c>
     </row>
@@ -4127,7 +4181,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>YwWk5E</t>
+          <t>yvH35M</t>
         </is>
       </c>
     </row>
@@ -4143,7 +4197,9 @@
       <c r="C53" t="n">
         <v>1301162741</v>
       </c>
-      <c r="D53" t="inlineStr"/>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
       <c r="E53" t="inlineStr">
         <is>
           <t>MCE</t>
@@ -4196,7 +4252,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>dYUmQG</t>
+          <t>pqRlvc</t>
         </is>
       </c>
     </row>
@@ -4212,7 +4268,9 @@
       <c r="C54" t="n">
         <v>1301164117</v>
       </c>
-      <c r="D54" t="inlineStr"/>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
       <c r="E54" t="inlineStr">
         <is>
           <t>TELE</t>
@@ -4265,7 +4323,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>jNqUSG</t>
+          <t>IT9XU3</t>
         </is>
       </c>
     </row>
@@ -4338,7 +4396,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>8jy2m5</t>
+          <t>GRWNwk</t>
         </is>
       </c>
     </row>
@@ -4354,7 +4412,9 @@
       <c r="C56" t="n">
         <v>1301160334</v>
       </c>
-      <c r="D56" t="inlineStr"/>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
       <c r="E56" t="inlineStr">
         <is>
           <t>MCE</t>
@@ -4407,7 +4467,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>W3qaR2</t>
+          <t>WOjj2W</t>
         </is>
       </c>
     </row>
@@ -4438,7 +4498,9 @@
           <t>NKN</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr"/>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
       <c r="H57" t="inlineStr">
         <is>
           <t>EMJ</t>
@@ -4476,7 +4538,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>lMCCZm</t>
+          <t>MWDzWh</t>
         </is>
       </c>
     </row>
@@ -4549,7 +4611,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>aTeyDW</t>
+          <t>03HcKg</t>
         </is>
       </c>
     </row>
@@ -4565,7 +4627,9 @@
       <c r="C59" t="n">
         <v>1103130250</v>
       </c>
-      <c r="D59" t="inlineStr"/>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
       <c r="E59" t="inlineStr">
         <is>
           <t>SIDE</t>
@@ -4576,7 +4640,9 @@
           <t>WRH</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr"/>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
       <c r="H59" t="inlineStr">
         <is>
           <t>KMS</t>
@@ -4614,7 +4680,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>QK467g</t>
+          <t>Ptlv3H</t>
         </is>
       </c>
     </row>
@@ -4687,7 +4753,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>7pFUAn</t>
+          <t>hU6Zm1</t>
         </is>
       </c>
     </row>
@@ -4760,7 +4826,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>UCxEGK</t>
+          <t>k4WZVF</t>
         </is>
       </c>
     </row>
@@ -4776,7 +4842,9 @@
       <c r="C62" t="n">
         <v>1301160786</v>
       </c>
-      <c r="D62" t="inlineStr"/>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
       <c r="E62" t="inlineStr">
         <is>
           <t>MCE</t>
@@ -4829,7 +4897,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>yL3Ma6</t>
+          <t>J1d6Rg</t>
         </is>
       </c>
     </row>
@@ -4902,7 +4970,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>z2Qzvn</t>
+          <t>JTShrn</t>
         </is>
       </c>
     </row>
@@ -4975,7 +5043,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>vqdY20</t>
+          <t>9nNBLO</t>
         </is>
       </c>
     </row>
@@ -5048,7 +5116,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>r5s93B</t>
+          <t>Q2QZ4p</t>
         </is>
       </c>
     </row>
@@ -5121,7 +5189,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>BTKFgj</t>
+          <t>oUeSZZ</t>
         </is>
       </c>
     </row>
@@ -5194,7 +5262,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>wZAXtY</t>
+          <t>vkroht</t>
         </is>
       </c>
     </row>
@@ -5210,7 +5278,9 @@
       <c r="C68" t="n">
         <v>1301188547</v>
       </c>
-      <c r="D68" t="inlineStr"/>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
       <c r="E68" t="inlineStr">
         <is>
           <t>ICM</t>
@@ -5221,7 +5291,9 @@
           <t>ATW</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr"/>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
       <c r="H68" t="inlineStr">
         <is>
           <t>RND</t>
@@ -5259,7 +5331,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>iNkbEn</t>
+          <t>5znhSe</t>
         </is>
       </c>
     </row>
@@ -5332,7 +5404,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>z6OV2Z</t>
+          <t>fKNCHt</t>
         </is>
       </c>
     </row>
@@ -5348,7 +5420,9 @@
       <c r="C70" t="n">
         <v>1301164648</v>
       </c>
-      <c r="D70" t="inlineStr"/>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
       <c r="E70" t="inlineStr">
         <is>
           <t>MCE</t>
@@ -5401,7 +5475,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>Qprazf</t>
+          <t>tgZBD6</t>
         </is>
       </c>
     </row>
@@ -5474,7 +5548,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>JEvoxy</t>
+          <t>KFK8K6</t>
         </is>
       </c>
     </row>
@@ -5505,7 +5579,9 @@
           <t>YLS</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr"/>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
       <c r="H72" t="inlineStr">
         <is>
           <t>RFU</t>
@@ -5543,12 +5619,14 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>r7aRZj</t>
+          <t>GbBSMb</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr"/>
+      <c r="A73" t="n">
+        <v>0</v>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>RERE GILANG NURI AULADI</t>
@@ -5557,7 +5635,9 @@
       <c r="C73" t="n">
         <v>1301160801</v>
       </c>
-      <c r="D73" t="inlineStr"/>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
       <c r="E73" t="inlineStr">
         <is>
           <t>TELE</t>
@@ -5610,7 +5690,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>bsMsgf</t>
+          <t>wYbNrW</t>
         </is>
       </c>
     </row>
@@ -5683,7 +5763,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>tI8bUW</t>
+          <t>HkuZNG</t>
         </is>
       </c>
     </row>
@@ -5714,7 +5794,9 @@
           <t>WRH</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr"/>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
       <c r="H75" t="inlineStr">
         <is>
           <t>IMD</t>
@@ -5752,7 +5834,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>capOBg</t>
+          <t>FBnMRL</t>
         </is>
       </c>
     </row>
@@ -5825,7 +5907,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>biEKso</t>
+          <t>GqyhT4</t>
         </is>
       </c>
     </row>
@@ -5898,7 +5980,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>QSnPES</t>
+          <t>5Ivf4T</t>
         </is>
       </c>
     </row>
@@ -5929,7 +6011,9 @@
           <t>ZKA</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr"/>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
       <c r="H78" t="inlineStr">
         <is>
           <t>IKN</t>
@@ -5967,7 +6051,7 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>Abxk43</t>
+          <t>0ZWBjG</t>
         </is>
       </c>
     </row>
@@ -6040,7 +6124,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2l87n7</t>
+          <t>tCfHcR</t>
         </is>
       </c>
     </row>
@@ -6113,7 +6197,7 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>Zi9P7g</t>
+          <t>06wPaA</t>
         </is>
       </c>
     </row>
@@ -6186,7 +6270,7 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>OZ6T6O</t>
+          <t>9aAoCq</t>
         </is>
       </c>
     </row>
@@ -6259,7 +6343,7 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>TYFRcN</t>
+          <t>VEw7O6</t>
         </is>
       </c>
     </row>
@@ -6290,7 +6374,9 @@
           <t>NKN</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr"/>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
       <c r="H83" t="inlineStr">
         <is>
           <t>EMJ</t>
@@ -6328,7 +6414,7 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>1vEonp</t>
+          <t>WkcGbU</t>
         </is>
       </c>
     </row>
@@ -6344,7 +6430,9 @@
       <c r="C84" t="n">
         <v>1301164095</v>
       </c>
-      <c r="D84" t="inlineStr"/>
+      <c r="D84" t="n">
+        <v>0</v>
+      </c>
       <c r="E84" t="inlineStr">
         <is>
           <t>ICM</t>
@@ -6397,7 +6485,7 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>FEwIyy</t>
+          <t>wf7VOS</t>
         </is>
       </c>
     </row>
@@ -6413,7 +6501,9 @@
       <c r="C85" t="n">
         <v>1301164642</v>
       </c>
-      <c r="D85" t="inlineStr"/>
+      <c r="D85" t="n">
+        <v>0</v>
+      </c>
       <c r="E85" t="inlineStr">
         <is>
           <t>MCE</t>
@@ -6466,7 +6556,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>e7aJ23</t>
+          <t>4bH6bo</t>
         </is>
       </c>
     </row>
@@ -6539,7 +6629,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>B0qk7Z</t>
+          <t>4hyaZY</t>
         </is>
       </c>
     </row>
@@ -6555,7 +6645,9 @@
       <c r="C87" t="n">
         <v>1301164061</v>
       </c>
-      <c r="D87" t="inlineStr"/>
+      <c r="D87" t="n">
+        <v>0</v>
+      </c>
       <c r="E87" t="inlineStr">
         <is>
           <t>TELE</t>
@@ -6608,7 +6700,7 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>uQcyFv</t>
+          <t>hgpoR7</t>
         </is>
       </c>
     </row>
@@ -6681,7 +6773,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>FXsyyN</t>
+          <t>u4I3we</t>
         </is>
       </c>
     </row>
@@ -6697,7 +6789,9 @@
       <c r="C89" t="n">
         <v>1301164225</v>
       </c>
-      <c r="D89" t="inlineStr"/>
+      <c r="D89" t="n">
+        <v>0</v>
+      </c>
       <c r="E89" t="inlineStr">
         <is>
           <t>SIDE</t>
@@ -6708,7 +6802,9 @@
           <t>RIE</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr"/>
+      <c r="G89" t="n">
+        <v>0</v>
+      </c>
       <c r="H89" t="inlineStr">
         <is>
           <t>KMS</t>
@@ -6746,7 +6842,7 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>m0Ni6y</t>
+          <t>0RfOMx</t>
         </is>
       </c>
     </row>
@@ -6762,7 +6858,9 @@
       <c r="C90" t="n">
         <v>1301140098</v>
       </c>
-      <c r="D90" t="inlineStr"/>
+      <c r="D90" t="n">
+        <v>0</v>
+      </c>
       <c r="E90" t="inlineStr">
         <is>
           <t>ICM</t>
@@ -6773,7 +6871,9 @@
           <t>ADE</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr"/>
+      <c r="G90" t="n">
+        <v>0</v>
+      </c>
       <c r="H90" t="inlineStr">
         <is>
           <t>DNH</t>
@@ -6811,7 +6911,7 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>ob4zBR</t>
+          <t>0WAfSW</t>
         </is>
       </c>
     </row>
@@ -6827,7 +6927,9 @@
       <c r="C91" t="n">
         <v>1301188585</v>
       </c>
-      <c r="D91" t="inlineStr"/>
+      <c r="D91" t="n">
+        <v>0</v>
+      </c>
       <c r="E91" t="inlineStr">
         <is>
           <t>ICM</t>
@@ -6838,7 +6940,9 @@
           <t>ATW</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr"/>
+      <c r="G91" t="n">
+        <v>0</v>
+      </c>
       <c r="H91" t="inlineStr">
         <is>
           <t>RMB</t>
@@ -6876,7 +6980,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>lgo3sK</t>
+          <t>Z9HTKW</t>
         </is>
       </c>
     </row>
@@ -6949,7 +7053,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>ZGIOGM</t>
+          <t>5VjCOK</t>
         </is>
       </c>
     </row>
@@ -7022,7 +7126,7 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>pIvZId</t>
+          <t>W151gW</t>
         </is>
       </c>
     </row>
@@ -7095,7 +7199,7 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>b6768W</t>
+          <t>BquEUW</t>
         </is>
       </c>
     </row>
@@ -7168,7 +7272,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>13PrBa</t>
+          <t>GfW5Rb</t>
         </is>
       </c>
     </row>
@@ -7241,7 +7345,7 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>ZT7sqv</t>
+          <t>sAeeNL</t>
         </is>
       </c>
     </row>
@@ -7272,7 +7376,9 @@
           <t>WRH</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr"/>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
       <c r="H97" t="inlineStr">
         <is>
           <t>KMS</t>
@@ -7310,7 +7416,7 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>zQiIjU</t>
+          <t>p7R6uc</t>
         </is>
       </c>
     </row>
@@ -7326,7 +7432,9 @@
       <c r="C98" t="n">
         <v>1301160795</v>
       </c>
-      <c r="D98" t="inlineStr"/>
+      <c r="D98" t="n">
+        <v>0</v>
+      </c>
       <c r="E98" t="inlineStr">
         <is>
           <t>MCE</t>
@@ -7337,7 +7445,9 @@
           <t>DAY</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr"/>
+      <c r="G98" t="n">
+        <v>0</v>
+      </c>
       <c r="H98" t="inlineStr">
         <is>
           <t>DNS</t>
@@ -7375,7 +7485,7 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>BS1OG4</t>
+          <t>1sm6Vy</t>
         </is>
       </c>
     </row>
@@ -7391,7 +7501,9 @@
       <c r="C99" t="n">
         <v>1301164407</v>
       </c>
-      <c r="D99" t="inlineStr"/>
+      <c r="D99" t="n">
+        <v>0</v>
+      </c>
       <c r="E99" t="inlineStr">
         <is>
           <t>MCE</t>
@@ -7402,7 +7514,9 @@
           <t>NIK</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr"/>
+      <c r="G99" t="n">
+        <v>0</v>
+      </c>
       <c r="H99" t="inlineStr">
         <is>
           <t>IPL</t>
@@ -7440,7 +7554,7 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>CizdqZ</t>
+          <t>UYPA0T</t>
         </is>
       </c>
     </row>
@@ -7472,7 +7586,9 @@
           <t>YLS</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr"/>
+      <c r="G100" t="n">
+        <v>0</v>
+      </c>
       <c r="H100" t="inlineStr">
         <is>
           <t>JDN</t>
@@ -7510,7 +7626,7 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>DaGcOO</t>
+          <t>Lk4F5I</t>
         </is>
       </c>
     </row>
@@ -7526,7 +7642,9 @@
       <c r="C101" t="n">
         <v>1301164237</v>
       </c>
-      <c r="D101" t="inlineStr"/>
+      <c r="D101" t="n">
+        <v>0</v>
+      </c>
       <c r="E101" t="inlineStr">
         <is>
           <t>TELE</t>
@@ -7579,7 +7697,7 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>uwUSwQ</t>
+          <t>fGw3tV</t>
         </is>
       </c>
     </row>
@@ -7652,7 +7770,7 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>iZxfCn</t>
+          <t>nX2mOJ</t>
         </is>
       </c>
     </row>
@@ -7668,7 +7786,9 @@
       <c r="C103" t="n">
         <v>1301164732</v>
       </c>
-      <c r="D103" t="inlineStr"/>
+      <c r="D103" t="n">
+        <v>0</v>
+      </c>
       <c r="E103" t="inlineStr">
         <is>
           <t>MCE</t>
@@ -7721,7 +7841,7 @@
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>rbF1Me</t>
+          <t>WxgOWk</t>
         </is>
       </c>
     </row>
@@ -7794,7 +7914,7 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>dSmbNk</t>
+          <t>eCL4c1</t>
         </is>
       </c>
     </row>
@@ -7867,7 +7987,7 @@
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>qsv2UD</t>
+          <t>ojt6ro</t>
         </is>
       </c>
     </row>
@@ -7940,7 +8060,7 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>btoUBd</t>
+          <t>FEjKTG</t>
         </is>
       </c>
     </row>
@@ -7956,7 +8076,9 @@
       <c r="C107" t="n">
         <v>1301164074</v>
       </c>
-      <c r="D107" t="inlineStr"/>
+      <c r="D107" t="n">
+        <v>0</v>
+      </c>
       <c r="E107" t="inlineStr">
         <is>
           <t>MCE</t>
@@ -8009,7 +8131,7 @@
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>IzEv7a</t>
+          <t>sYCyP5</t>
         </is>
       </c>
     </row>
@@ -8040,7 +8162,9 @@
           <t>YLS</t>
         </is>
       </c>
-      <c r="G108" t="inlineStr"/>
+      <c r="G108" t="n">
+        <v>0</v>
+      </c>
       <c r="H108" t="inlineStr">
         <is>
           <t>ERW</t>
@@ -8078,7 +8202,7 @@
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>xwRYGb</t>
+          <t>19VySL</t>
         </is>
       </c>
     </row>
@@ -8094,7 +8218,9 @@
       <c r="C109" t="n">
         <v>1301164203</v>
       </c>
-      <c r="D109" t="inlineStr"/>
+      <c r="D109" t="n">
+        <v>0</v>
+      </c>
       <c r="E109" t="inlineStr">
         <is>
           <t>SIDE</t>
@@ -8147,7 +8273,7 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2QFSfG</t>
+          <t>153u2W</t>
         </is>
       </c>
     </row>
@@ -8220,7 +8346,7 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>YlU3pp</t>
+          <t>DIrFO1</t>
         </is>
       </c>
     </row>
@@ -8293,7 +8419,7 @@
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>8WO6Gy</t>
+          <t>vjal7c</t>
         </is>
       </c>
     </row>
@@ -8309,7 +8435,9 @@
       <c r="C112" t="n">
         <v>1301162314</v>
       </c>
-      <c r="D112" t="inlineStr"/>
+      <c r="D112" t="n">
+        <v>0</v>
+      </c>
       <c r="E112" t="inlineStr">
         <is>
           <t>MCE</t>
@@ -8362,7 +8490,7 @@
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>dXQ5B4</t>
+          <t>Y0bUjW</t>
         </is>
       </c>
     </row>
@@ -8435,7 +8563,7 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>nqS3UP</t>
+          <t>SOgaqE</t>
         </is>
       </c>
     </row>
@@ -8466,7 +8594,9 @@
           <t>YLS</t>
         </is>
       </c>
-      <c r="G114" t="inlineStr"/>
+      <c r="G114" t="n">
+        <v>0</v>
+      </c>
       <c r="H114" t="inlineStr">
         <is>
           <t>MHD</t>
@@ -8504,7 +8634,7 @@
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2YU14J</t>
+          <t>V1h9eF</t>
         </is>
       </c>
     </row>
@@ -8577,7 +8707,7 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>EsMRBW</t>
+          <t>iZujFx</t>
         </is>
       </c>
     </row>
@@ -8593,7 +8723,9 @@
       <c r="C116" t="n">
         <v>1301154403</v>
       </c>
-      <c r="D116" t="inlineStr"/>
+      <c r="D116" t="n">
+        <v>0</v>
+      </c>
       <c r="E116" t="inlineStr">
         <is>
           <t>TELE</t>
@@ -8646,7 +8778,7 @@
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>Ijp8ME</t>
+          <t>ebID5k</t>
         </is>
       </c>
     </row>
@@ -8719,7 +8851,7 @@
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>IRGxBD</t>
+          <t>5IjybH</t>
         </is>
       </c>
     </row>
@@ -8792,7 +8924,7 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>3Mf6WN</t>
+          <t>mrCuHl</t>
         </is>
       </c>
     </row>
@@ -8865,12 +8997,14 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>OtcEqC</t>
+          <t>aqOyBd</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="inlineStr"/>
+      <c r="A120" t="n">
+        <v>0</v>
+      </c>
       <c r="B120" t="inlineStr">
         <is>
           <t>MUHAMMAD NAUFAL DIVIAN MULIAWAN</t>
@@ -8936,7 +9070,7 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>ThM2LW</t>
+          <t>Py8sc8</t>
         </is>
       </c>
     </row>
@@ -9009,7 +9143,7 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>fFCaVv</t>
+          <t>OMP5g1</t>
         </is>
       </c>
     </row>
@@ -9025,7 +9159,9 @@
       <c r="C122" t="n">
         <v>1301164267</v>
       </c>
-      <c r="D122" t="inlineStr"/>
+      <c r="D122" t="n">
+        <v>0</v>
+      </c>
       <c r="E122" t="inlineStr">
         <is>
           <t>TELE</t>
@@ -9078,7 +9214,7 @@
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>DjX04F</t>
+          <t>vc7n46</t>
         </is>
       </c>
     </row>
@@ -9094,7 +9230,9 @@
       <c r="C123" t="n">
         <v>1301164346</v>
       </c>
-      <c r="D123" t="inlineStr"/>
+      <c r="D123" t="n">
+        <v>0</v>
+      </c>
       <c r="E123" t="inlineStr">
         <is>
           <t>ICM</t>
@@ -9105,7 +9243,9 @@
           <t>DNH</t>
         </is>
       </c>
-      <c r="G123" t="inlineStr"/>
+      <c r="G123" t="n">
+        <v>0</v>
+      </c>
       <c r="H123" t="inlineStr">
         <is>
           <t>ADE</t>
@@ -9143,7 +9283,7 @@
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>SbTUtc</t>
+          <t>xxMiE6</t>
         </is>
       </c>
     </row>
@@ -9159,7 +9299,9 @@
       <c r="C124" t="n">
         <v>1301164650</v>
       </c>
-      <c r="D124" t="inlineStr"/>
+      <c r="D124" t="n">
+        <v>0</v>
+      </c>
       <c r="E124" t="inlineStr">
         <is>
           <t>MCE</t>
@@ -9170,7 +9312,9 @@
           <t>PHN</t>
         </is>
       </c>
-      <c r="G124" t="inlineStr"/>
+      <c r="G124" t="n">
+        <v>0</v>
+      </c>
       <c r="H124" t="inlineStr">
         <is>
           <t>SSI</t>
@@ -9208,7 +9352,7 @@
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>NX07GR</t>
+          <t>kCc5AL</t>
         </is>
       </c>
     </row>
@@ -9240,7 +9384,9 @@
           <t>YLS</t>
         </is>
       </c>
-      <c r="G125" t="inlineStr"/>
+      <c r="G125" t="n">
+        <v>0</v>
+      </c>
       <c r="H125" t="inlineStr">
         <is>
           <t>ERW</t>
@@ -9278,12 +9424,14 @@
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>SbJRpL</t>
+          <t>TDKpGU</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="inlineStr"/>
+      <c r="A126" t="n">
+        <v>0</v>
+      </c>
       <c r="B126" t="inlineStr">
         <is>
           <t>RISKA CHAIRUNISA</t>
@@ -9349,7 +9497,7 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>qca4cl</t>
+          <t>Cx0WwT</t>
         </is>
       </c>
     </row>
@@ -9422,7 +9570,7 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>utQKZ5</t>
+          <t>uZJGVT</t>
         </is>
       </c>
     </row>
@@ -9495,7 +9643,7 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>rFgl2P</t>
+          <t>UpBdK9</t>
         </is>
       </c>
     </row>
@@ -9526,7 +9674,9 @@
           <t>WRH</t>
         </is>
       </c>
-      <c r="G129" t="inlineStr"/>
+      <c r="G129" t="n">
+        <v>0</v>
+      </c>
       <c r="H129" t="inlineStr">
         <is>
           <t>JTI</t>
@@ -9564,7 +9714,7 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>afzeOw</t>
+          <t>hJsIRu</t>
         </is>
       </c>
     </row>
@@ -9595,7 +9745,9 @@
           <t>ATW</t>
         </is>
       </c>
-      <c r="G130" t="inlineStr"/>
+      <c r="G130" t="n">
+        <v>0</v>
+      </c>
       <c r="H130" t="inlineStr">
         <is>
           <t>ADF</t>
@@ -9633,7 +9785,7 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>w3Lei0</t>
+          <t>vHZIvB</t>
         </is>
       </c>
     </row>
@@ -9706,7 +9858,7 @@
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>n16PmS</t>
+          <t>VlqINy</t>
         </is>
       </c>
     </row>
@@ -9722,7 +9874,9 @@
       <c r="C132" t="n">
         <v>1301164685</v>
       </c>
-      <c r="D132" t="inlineStr"/>
+      <c r="D132" t="n">
+        <v>0</v>
+      </c>
       <c r="E132" t="inlineStr">
         <is>
           <t>MCE</t>
@@ -9775,7 +9929,7 @@
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>pOOazO</t>
+          <t>xUfg9D</t>
         </is>
       </c>
     </row>
@@ -9791,7 +9945,9 @@
       <c r="C133" t="n">
         <v>1301164550</v>
       </c>
-      <c r="D133" t="inlineStr"/>
+      <c r="D133" t="n">
+        <v>0</v>
+      </c>
       <c r="E133" t="inlineStr">
         <is>
           <t>MCE</t>
@@ -9844,7 +10000,7 @@
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>uYMomX</t>
+          <t>ncZFqQ</t>
         </is>
       </c>
     </row>
@@ -9860,7 +10016,9 @@
       <c r="C134" t="n">
         <v>1301164264</v>
       </c>
-      <c r="D134" t="inlineStr"/>
+      <c r="D134" t="n">
+        <v>0</v>
+      </c>
       <c r="E134" t="inlineStr">
         <is>
           <t>TELE</t>
@@ -9913,7 +10071,7 @@
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>cRq1Te</t>
+          <t>3ddUeY</t>
         </is>
       </c>
     </row>
@@ -9986,7 +10144,7 @@
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>WUuoYo</t>
+          <t>rqoQbB</t>
         </is>
       </c>
     </row>
@@ -10017,7 +10175,9 @@
           <t>WRH</t>
         </is>
       </c>
-      <c r="G136" t="inlineStr"/>
+      <c r="G136" t="n">
+        <v>0</v>
+      </c>
       <c r="H136" t="inlineStr">
         <is>
           <t>SYP</t>
@@ -10055,7 +10215,7 @@
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>CUINSb</t>
+          <t>NBEBYY</t>
         </is>
       </c>
     </row>
@@ -10128,7 +10288,7 @@
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>MCVCq7</t>
+          <t>I2rUVG</t>
         </is>
       </c>
     </row>
@@ -10144,7 +10304,9 @@
       <c r="C138" t="n">
         <v>1301164735</v>
       </c>
-      <c r="D138" t="inlineStr"/>
+      <c r="D138" t="n">
+        <v>0</v>
+      </c>
       <c r="E138" t="inlineStr">
         <is>
           <t>SIDE</t>
@@ -10197,7 +10359,7 @@
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>atLAJs</t>
+          <t>lHiaFK</t>
         </is>
       </c>
     </row>
@@ -10213,7 +10375,9 @@
       <c r="C139" t="n">
         <v>1301164476</v>
       </c>
-      <c r="D139" t="inlineStr"/>
+      <c r="D139" t="n">
+        <v>0</v>
+      </c>
       <c r="E139" t="inlineStr">
         <is>
           <t>ICM</t>
@@ -10266,7 +10430,7 @@
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>nWGVr6</t>
+          <t>KfPmNE</t>
         </is>
       </c>
     </row>
@@ -10339,7 +10503,7 @@
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>jpuu6l</t>
+          <t>lgLt32</t>
         </is>
       </c>
     </row>
@@ -10370,7 +10534,9 @@
           <t>DAY</t>
         </is>
       </c>
-      <c r="G141" t="inlineStr"/>
+      <c r="G141" t="n">
+        <v>0</v>
+      </c>
       <c r="H141" t="inlineStr">
         <is>
           <t>DLW</t>
@@ -10408,7 +10574,7 @@
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>hUFS2v</t>
+          <t>a2k19I</t>
         </is>
       </c>
     </row>
@@ -10424,7 +10590,9 @@
       <c r="C142" t="n">
         <v>1301164168</v>
       </c>
-      <c r="D142" t="inlineStr"/>
+      <c r="D142" t="n">
+        <v>0</v>
+      </c>
       <c r="E142" t="inlineStr">
         <is>
           <t>MCE</t>
@@ -10477,7 +10645,7 @@
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>JFU4i3</t>
+          <t>AuCM3S</t>
         </is>
       </c>
     </row>
@@ -10550,7 +10718,7 @@
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>xcTNEF</t>
+          <t>J1EpKq</t>
         </is>
       </c>
     </row>
@@ -10623,7 +10791,7 @@
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>9JTIVR</t>
+          <t>W13SrC</t>
         </is>
       </c>
     </row>
@@ -10696,7 +10864,7 @@
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>Bn678j</t>
+          <t>pNHaao</t>
         </is>
       </c>
     </row>
@@ -10712,7 +10880,9 @@
       <c r="C146" t="n">
         <v>1301160804</v>
       </c>
-      <c r="D146" t="inlineStr"/>
+      <c r="D146" t="n">
+        <v>0</v>
+      </c>
       <c r="E146" t="inlineStr">
         <is>
           <t>MCE</t>
@@ -10765,7 +10935,7 @@
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>MfB5Qi</t>
+          <t>xF64OD</t>
         </is>
       </c>
     </row>
@@ -10796,7 +10966,9 @@
           <t>ERW</t>
         </is>
       </c>
-      <c r="G147" t="inlineStr"/>
+      <c r="G147" t="n">
+        <v>0</v>
+      </c>
       <c r="H147" t="inlineStr">
         <is>
           <t>YLS</t>
@@ -10834,7 +11006,7 @@
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>0h82L9</t>
+          <t>0l7fDw</t>
         </is>
       </c>
     </row>
@@ -10907,7 +11079,7 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>sdmeRE</t>
+          <t>VVinYB</t>
         </is>
       </c>
     </row>
@@ -10980,7 +11152,7 @@
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>eyYYmp</t>
+          <t>faM6sA</t>
         </is>
       </c>
     </row>
@@ -11011,7 +11183,9 @@
           <t>NKN</t>
         </is>
       </c>
-      <c r="G150" t="inlineStr"/>
+      <c r="G150" t="n">
+        <v>0</v>
+      </c>
       <c r="H150" t="inlineStr">
         <is>
           <t>ADR</t>
@@ -11049,7 +11223,7 @@
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>rdM8J1</t>
+          <t>cOcHlV</t>
         </is>
       </c>
     </row>
@@ -11065,7 +11239,9 @@
       <c r="C151" t="n">
         <v>1301164295</v>
       </c>
-      <c r="D151" t="inlineStr"/>
+      <c r="D151" t="n">
+        <v>0</v>
+      </c>
       <c r="E151" t="inlineStr">
         <is>
           <t>MCE</t>
@@ -11118,7 +11294,7 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>D2sKUj</t>
+          <t>WBAf3Z</t>
         </is>
       </c>
     </row>
@@ -11192,7 +11368,7 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>GxjEtl</t>
+          <t>O5FXzj</t>
         </is>
       </c>
     </row>
@@ -11208,7 +11384,9 @@
       <c r="C153" t="n">
         <v>1301160335</v>
       </c>
-      <c r="D153" t="inlineStr"/>
+      <c r="D153" t="n">
+        <v>0</v>
+      </c>
       <c r="E153" t="inlineStr">
         <is>
           <t>MCE</t>
@@ -11219,7 +11397,9 @@
           <t>YLS</t>
         </is>
       </c>
-      <c r="G153" t="inlineStr"/>
+      <c r="G153" t="n">
+        <v>0</v>
+      </c>
       <c r="H153" t="inlineStr">
         <is>
           <t>IPL</t>
@@ -11257,7 +11437,7 @@
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>3JgfRG</t>
+          <t>5y1jtM</t>
         </is>
       </c>
     </row>
@@ -11330,7 +11510,7 @@
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>70QOPu</t>
+          <t>ifZDaJ</t>
         </is>
       </c>
     </row>
@@ -11361,7 +11541,9 @@
           <t>ERF</t>
         </is>
       </c>
-      <c r="G155" t="inlineStr"/>
+      <c r="G155" t="n">
+        <v>0</v>
+      </c>
       <c r="H155" t="inlineStr">
         <is>
           <t>ADR</t>
@@ -11399,7 +11581,7 @@
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>6E9sYB</t>
+          <t>9T1XbH</t>
         </is>
       </c>
     </row>
@@ -11472,7 +11654,7 @@
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>6YsxMl</t>
+          <t>YpNAk9</t>
         </is>
       </c>
     </row>
@@ -11488,7 +11670,9 @@
       <c r="C157" t="n">
         <v>1301162765</v>
       </c>
-      <c r="D157" t="inlineStr"/>
+      <c r="D157" t="n">
+        <v>0</v>
+      </c>
       <c r="E157" t="inlineStr">
         <is>
           <t>SIDE</t>
@@ -11541,7 +11725,7 @@
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>phXpHx</t>
+          <t>7NAhLa</t>
         </is>
       </c>
     </row>
@@ -11614,7 +11798,7 @@
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>5IOlua</t>
+          <t>jru8Hl</t>
         </is>
       </c>
     </row>
@@ -11687,7 +11871,7 @@
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>wFLcUV</t>
+          <t>ASXpcV</t>
         </is>
       </c>
     </row>
@@ -11703,7 +11887,9 @@
       <c r="C160" t="n">
         <v>1301178325</v>
       </c>
-      <c r="D160" t="inlineStr"/>
+      <c r="D160" t="n">
+        <v>0</v>
+      </c>
       <c r="E160" t="inlineStr">
         <is>
           <t>ICM</t>
@@ -11714,7 +11900,9 @@
           <t>ATW</t>
         </is>
       </c>
-      <c r="G160" t="inlineStr"/>
+      <c r="G160" t="n">
+        <v>0</v>
+      </c>
       <c r="H160" t="inlineStr">
         <is>
           <t>DNH</t>
@@ -11752,7 +11940,7 @@
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>19n28R</t>
+          <t>n6FuFg</t>
         </is>
       </c>
     </row>
@@ -11825,7 +12013,7 @@
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>1f4i6C</t>
+          <t>9eym02</t>
         </is>
       </c>
     </row>
@@ -11841,7 +12029,9 @@
       <c r="C162" t="n">
         <v>1301160444</v>
       </c>
-      <c r="D162" t="inlineStr"/>
+      <c r="D162" t="n">
+        <v>0</v>
+      </c>
       <c r="E162" t="inlineStr">
         <is>
           <t>ICM</t>
@@ -11894,7 +12084,7 @@
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>tl885m</t>
+          <t>zMoecD</t>
         </is>
       </c>
     </row>
@@ -11925,7 +12115,9 @@
           <t>DAY</t>
         </is>
       </c>
-      <c r="G163" t="inlineStr"/>
+      <c r="G163" t="n">
+        <v>0</v>
+      </c>
       <c r="H163" t="inlineStr">
         <is>
           <t>DNS</t>
@@ -11963,7 +12155,7 @@
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>JVJGGe</t>
+          <t>U5nI2c</t>
         </is>
       </c>
     </row>
@@ -12036,7 +12228,7 @@
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>28pU9J</t>
+          <t>mhgz3S</t>
         </is>
       </c>
     </row>
@@ -12109,7 +12301,7 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>FF5l0f</t>
+          <t>koCqNo</t>
         </is>
       </c>
     </row>
@@ -12182,7 +12374,7 @@
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>ApFKWB</t>
+          <t>hK2WkI</t>
         </is>
       </c>
     </row>
@@ -12255,7 +12447,7 @@
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>ARmEWO</t>
+          <t>q08t1d</t>
         </is>
       </c>
     </row>
@@ -12287,7 +12479,9 @@
           <t>ERF</t>
         </is>
       </c>
-      <c r="G168" t="inlineStr"/>
+      <c r="G168" t="n">
+        <v>0</v>
+      </c>
       <c r="H168" t="inlineStr">
         <is>
           <t>DWS</t>
@@ -12325,7 +12519,7 @@
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>mC8fDt</t>
+          <t>WpVvpb</t>
         </is>
       </c>
     </row>
@@ -12398,7 +12592,7 @@
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>fEwk96</t>
+          <t>ePORWe</t>
         </is>
       </c>
     </row>
@@ -12414,7 +12608,9 @@
       <c r="C170" t="n">
         <v>1301164262</v>
       </c>
-      <c r="D170" t="inlineStr"/>
+      <c r="D170" t="n">
+        <v>0</v>
+      </c>
       <c r="E170" t="inlineStr">
         <is>
           <t>ICM</t>
@@ -12467,7 +12663,7 @@
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>8xzTvL</t>
+          <t>IPFQHQ</t>
         </is>
       </c>
     </row>
@@ -12499,7 +12695,9 @@
           <t>NKN</t>
         </is>
       </c>
-      <c r="G171" t="inlineStr"/>
+      <c r="G171" t="n">
+        <v>0</v>
+      </c>
       <c r="H171" t="inlineStr">
         <is>
           <t>EMJ</t>
@@ -12537,7 +12735,7 @@
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>5upMbk</t>
+          <t>pbx70c</t>
         </is>
       </c>
     </row>
@@ -12610,7 +12808,7 @@
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>Ow8evu</t>
+          <t>VsOCsD</t>
         </is>
       </c>
     </row>
@@ -12626,7 +12824,9 @@
       <c r="C173" t="n">
         <v>1301164734</v>
       </c>
-      <c r="D173" t="inlineStr"/>
+      <c r="D173" t="n">
+        <v>0</v>
+      </c>
       <c r="E173" t="inlineStr">
         <is>
           <t>MCE</t>
@@ -12637,7 +12837,9 @@
           <t>KMM</t>
         </is>
       </c>
-      <c r="G173" t="inlineStr"/>
+      <c r="G173" t="n">
+        <v>0</v>
+      </c>
       <c r="H173" t="inlineStr">
         <is>
           <t>DNS</t>
@@ -12675,7 +12877,7 @@
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>dYsOtI</t>
+          <t>iweO8F</t>
         </is>
       </c>
     </row>
@@ -12691,7 +12893,9 @@
       <c r="C174" t="n">
         <v>1301162748</v>
       </c>
-      <c r="D174" t="inlineStr"/>
+      <c r="D174" t="n">
+        <v>0</v>
+      </c>
       <c r="E174" t="inlineStr">
         <is>
           <t>MCE</t>
@@ -12702,7 +12906,9 @@
           <t>ERW</t>
         </is>
       </c>
-      <c r="G174" t="inlineStr"/>
+      <c r="G174" t="n">
+        <v>0</v>
+      </c>
       <c r="H174" t="inlineStr">
         <is>
           <t>DTO</t>
@@ -12740,7 +12946,7 @@
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>XWEF9A</t>
+          <t>AzyCoG</t>
         </is>
       </c>
     </row>
@@ -12813,7 +13019,7 @@
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>A9ZBIJ</t>
+          <t>COWdyl</t>
         </is>
       </c>
     </row>
@@ -12886,7 +13092,7 @@
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>npN6jS</t>
+          <t>31V9tE</t>
         </is>
       </c>
     </row>
@@ -12917,7 +13123,9 @@
           <t>HHN</t>
         </is>
       </c>
-      <c r="G177" t="inlineStr"/>
+      <c r="G177" t="n">
+        <v>0</v>
+      </c>
       <c r="H177" t="inlineStr">
         <is>
           <t>END</t>
@@ -12955,7 +13163,7 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>GbscoF</t>
+          <t>r8FpqL</t>
         </is>
       </c>
     </row>
@@ -13028,7 +13236,7 @@
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>e8dYhb</t>
+          <t>EahZXb</t>
         </is>
       </c>
     </row>
@@ -13101,7 +13309,7 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>9zPbCb</t>
+          <t>YeVb9s</t>
         </is>
       </c>
     </row>
@@ -13175,7 +13383,7 @@
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>89hh7O</t>
+          <t>3Ccmig</t>
         </is>
       </c>
     </row>
@@ -13248,7 +13456,7 @@
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>D2qzP5</t>
+          <t>GuKJk4</t>
         </is>
       </c>
     </row>
@@ -13279,7 +13487,9 @@
           <t>ATW</t>
         </is>
       </c>
-      <c r="G182" t="inlineStr"/>
+      <c r="G182" t="n">
+        <v>0</v>
+      </c>
       <c r="H182" t="inlineStr">
         <is>
           <t>ADF</t>
@@ -13317,7 +13527,7 @@
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>wEnZSW</t>
+          <t>ngNYTF</t>
         </is>
       </c>
     </row>
@@ -13390,7 +13600,7 @@
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>kjtdAE</t>
+          <t>VgmXnJ</t>
         </is>
       </c>
     </row>
@@ -13463,7 +13673,7 @@
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>WSZdLz</t>
+          <t>U49ce6</t>
         </is>
       </c>
     </row>
@@ -13494,7 +13704,9 @@
           <t>ZKA</t>
         </is>
       </c>
-      <c r="G185" t="inlineStr"/>
+      <c r="G185" t="n">
+        <v>0</v>
+      </c>
       <c r="H185" t="inlineStr">
         <is>
           <t>IKN</t>
@@ -13532,7 +13744,7 @@
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>57hDhx</t>
+          <t>x61FJM</t>
         </is>
       </c>
     </row>
@@ -13605,7 +13817,7 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>AqAQZm</t>
+          <t>Psk9P7</t>
         </is>
       </c>
     </row>
@@ -13621,7 +13833,9 @@
       <c r="C187" t="n">
         <v>1301164660</v>
       </c>
-      <c r="D187" t="inlineStr"/>
+      <c r="D187" t="n">
+        <v>0</v>
+      </c>
       <c r="E187" t="inlineStr">
         <is>
           <t>MCE</t>
@@ -13674,7 +13888,7 @@
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>qbV9A3</t>
+          <t>LdcUcp</t>
         </is>
       </c>
     </row>
@@ -13747,7 +13961,7 @@
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>pRWlc9</t>
+          <t>lIMzrj</t>
         </is>
       </c>
     </row>
@@ -13763,7 +13977,9 @@
       <c r="C189" t="n">
         <v>1301164119</v>
       </c>
-      <c r="D189" t="inlineStr"/>
+      <c r="D189" t="n">
+        <v>0</v>
+      </c>
       <c r="E189" t="inlineStr">
         <is>
           <t>TELE</t>
@@ -13816,7 +14032,7 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>ke3ydx</t>
+          <t>KYEyg0</t>
         </is>
       </c>
     </row>
@@ -13889,7 +14105,7 @@
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>6dfEQe</t>
+          <t>BFzpOr</t>
         </is>
       </c>
     </row>
@@ -13962,7 +14178,7 @@
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>mjJyEc</t>
+          <t>0vmiWN</t>
         </is>
       </c>
     </row>
@@ -13978,7 +14194,9 @@
       <c r="C192" t="n">
         <v>1301164268</v>
       </c>
-      <c r="D192" t="inlineStr"/>
+      <c r="D192" t="n">
+        <v>0</v>
+      </c>
       <c r="E192" t="inlineStr">
         <is>
           <t>SIDE</t>
@@ -14031,7 +14249,7 @@
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>I169tE</t>
+          <t>sdAu92</t>
         </is>
       </c>
     </row>
@@ -14047,7 +14265,9 @@
       <c r="C193" t="n">
         <v>1301154119</v>
       </c>
-      <c r="D193" t="inlineStr"/>
+      <c r="D193" t="n">
+        <v>0</v>
+      </c>
       <c r="E193" t="inlineStr">
         <is>
           <t>MCE</t>
@@ -14100,7 +14320,7 @@
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>d3nTRb</t>
+          <t>I7SBlt</t>
         </is>
       </c>
     </row>
@@ -14131,7 +14351,9 @@
           <t>ERF</t>
         </is>
       </c>
-      <c r="G194" t="inlineStr"/>
+      <c r="G194" t="n">
+        <v>0</v>
+      </c>
       <c r="H194" t="inlineStr">
         <is>
           <t>SPO</t>
@@ -14169,7 +14391,7 @@
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>ZazRBR</t>
+          <t>e9oZuz</t>
         </is>
       </c>
     </row>
@@ -14242,7 +14464,7 @@
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>Z3r1uR</t>
+          <t>XGSrm4</t>
         </is>
       </c>
     </row>
@@ -14316,7 +14538,7 @@
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>OtjwNe</t>
+          <t>ecEyyS</t>
         </is>
       </c>
     </row>
@@ -14347,7 +14569,9 @@
           <t>DAY</t>
         </is>
       </c>
-      <c r="G197" t="inlineStr"/>
+      <c r="G197" t="n">
+        <v>0</v>
+      </c>
       <c r="H197" t="inlineStr">
         <is>
           <t>DLW</t>
@@ -14385,7 +14609,7 @@
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>SSfrF0</t>
+          <t>rrhYYV</t>
         </is>
       </c>
     </row>
@@ -14458,7 +14682,7 @@
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>wXrPoA</t>
+          <t>1lu1SZ</t>
         </is>
       </c>
     </row>
@@ -14474,7 +14698,9 @@
       <c r="C199" t="n">
         <v>1301164555</v>
       </c>
-      <c r="D199" t="inlineStr"/>
+      <c r="D199" t="n">
+        <v>0</v>
+      </c>
       <c r="E199" t="inlineStr">
         <is>
           <t>MCE</t>
@@ -14527,7 +14753,7 @@
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>eMxoyQ</t>
+          <t>yXBBnF</t>
         </is>
       </c>
     </row>
@@ -14543,7 +14769,9 @@
       <c r="C200" t="n">
         <v>1301164736</v>
       </c>
-      <c r="D200" t="inlineStr"/>
+      <c r="D200" t="n">
+        <v>0</v>
+      </c>
       <c r="E200" t="inlineStr">
         <is>
           <t>TELE</t>
@@ -14596,7 +14824,7 @@
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>F8YnO4</t>
+          <t>JjFxCq</t>
         </is>
       </c>
     </row>
@@ -14612,7 +14840,9 @@
       <c r="C201" t="n">
         <v>1301150088</v>
       </c>
-      <c r="D201" t="inlineStr"/>
+      <c r="D201" t="n">
+        <v>0</v>
+      </c>
       <c r="E201" t="inlineStr">
         <is>
           <t>TELE</t>
@@ -14623,7 +14853,9 @@
           <t>SMD</t>
         </is>
       </c>
-      <c r="G201" t="inlineStr"/>
+      <c r="G201" t="n">
+        <v>0</v>
+      </c>
       <c r="H201" t="inlineStr">
         <is>
           <t>MAN</t>
@@ -14661,7 +14893,7 @@
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>6M0P8h</t>
+          <t>NT0W1y</t>
         </is>
       </c>
     </row>
@@ -14734,7 +14966,7 @@
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>FyDbQh</t>
+          <t>9KD6yK</t>
         </is>
       </c>
     </row>
@@ -14807,7 +15039,7 @@
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>HPAr0x</t>
+          <t>3Miqvu</t>
         </is>
       </c>
     </row>
@@ -14880,7 +15112,7 @@
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>Hdnr9I</t>
+          <t>KpW3zn</t>
         </is>
       </c>
     </row>
@@ -14896,7 +15128,9 @@
       <c r="C205" t="n">
         <v>1301150780</v>
       </c>
-      <c r="D205" t="inlineStr"/>
+      <c r="D205" t="n">
+        <v>0</v>
+      </c>
       <c r="E205" t="inlineStr">
         <is>
           <t>MCE</t>
@@ -14907,7 +15141,9 @@
           <t>DAY</t>
         </is>
       </c>
-      <c r="G205" t="inlineStr"/>
+      <c r="G205" t="n">
+        <v>0</v>
+      </c>
       <c r="H205" t="inlineStr">
         <is>
           <t>IKN</t>
@@ -14945,7 +15181,7 @@
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>wPqnPd</t>
+          <t>tJsvK9</t>
         </is>
       </c>
     </row>
@@ -14961,7 +15197,9 @@
       <c r="C206" t="n">
         <v>1301164174</v>
       </c>
-      <c r="D206" t="inlineStr"/>
+      <c r="D206" t="n">
+        <v>0</v>
+      </c>
       <c r="E206" t="inlineStr">
         <is>
           <t>ICM</t>
@@ -14972,7 +15210,9 @@
           <t>SUO</t>
         </is>
       </c>
-      <c r="G206" t="inlineStr"/>
+      <c r="G206" t="n">
+        <v>0</v>
+      </c>
       <c r="H206" t="inlineStr">
         <is>
           <t>ADF</t>
@@ -15010,7 +15250,7 @@
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>xLG1sg</t>
+          <t>eh21K7</t>
         </is>
       </c>
     </row>
@@ -15041,7 +15281,9 @@
           <t>ERW</t>
         </is>
       </c>
-      <c r="G207" t="inlineStr"/>
+      <c r="G207" t="n">
+        <v>0</v>
+      </c>
       <c r="H207" t="inlineStr">
         <is>
           <t>YLS</t>
@@ -15079,7 +15321,7 @@
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>onozlU</t>
+          <t>OM77FB</t>
         </is>
       </c>
     </row>
@@ -15152,7 +15394,7 @@
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>OuSawD</t>
+          <t>ldbqLz</t>
         </is>
       </c>
     </row>
@@ -15225,7 +15467,7 @@
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>lbByIS</t>
+          <t>YSO40r</t>
         </is>
       </c>
     </row>
@@ -15298,7 +15540,7 @@
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>rMAiZD</t>
+          <t>WSMBjz</t>
         </is>
       </c>
     </row>
@@ -15371,7 +15613,7 @@
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2ddNHQ</t>
+          <t>dOP8Pt</t>
         </is>
       </c>
     </row>
@@ -15444,7 +15686,7 @@
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>CUZsxA</t>
+          <t>1VhVPQ</t>
         </is>
       </c>
     </row>
@@ -15466,7 +15708,9 @@
 dzulwulan@365.telkomuniversity.ac.id</t>
         </is>
       </c>
-      <c r="E213" t="inlineStr"/>
+      <c r="E213" t="n">
+        <v>0</v>
+      </c>
       <c r="F213" t="inlineStr">
         <is>
           <t>ATW</t>
@@ -15514,7 +15758,7 @@
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>YolazU</t>
+          <t>lD8Zfl</t>
         </is>
       </c>
     </row>
@@ -15545,7 +15789,9 @@
           <t>HHN</t>
         </is>
       </c>
-      <c r="G214" t="inlineStr"/>
+      <c r="G214" t="n">
+        <v>0</v>
+      </c>
       <c r="H214" t="inlineStr">
         <is>
           <t>EMJ</t>
@@ -15583,7 +15829,7 @@
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>zAqrzA</t>
+          <t>M9k3eC</t>
         </is>
       </c>
     </row>
@@ -15599,7 +15845,9 @@
       <c r="C215" t="n">
         <v>1301188595</v>
       </c>
-      <c r="D215" t="inlineStr"/>
+      <c r="D215" t="n">
+        <v>0</v>
+      </c>
       <c r="E215" t="inlineStr">
         <is>
           <t>ICM</t>
@@ -15652,7 +15900,7 @@
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>objG6L</t>
+          <t>wJFTlE</t>
         </is>
       </c>
     </row>
@@ -15725,7 +15973,7 @@
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>w8wEfJ</t>
+          <t>00xorV</t>
         </is>
       </c>
     </row>
@@ -15798,7 +16046,7 @@
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>XquNIK</t>
+          <t>l7K5c5</t>
         </is>
       </c>
     </row>
@@ -15871,7 +16119,7 @@
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>NSHA5P</t>
+          <t>enO1We</t>
         </is>
       </c>
     </row>
@@ -15887,7 +16135,9 @@
       <c r="C219" t="n">
         <v>1301164646</v>
       </c>
-      <c r="D219" t="inlineStr"/>
+      <c r="D219" t="n">
+        <v>0</v>
+      </c>
       <c r="E219" t="inlineStr">
         <is>
           <t>MCE</t>
@@ -15940,7 +16190,7 @@
       </c>
       <c r="O219" t="inlineStr">
         <is>
-          <t>Jrjjrf</t>
+          <t>wWMqQd</t>
         </is>
       </c>
     </row>
@@ -15971,7 +16221,9 @@
           <t>ERW</t>
         </is>
       </c>
-      <c r="G220" t="inlineStr"/>
+      <c r="G220" t="n">
+        <v>0</v>
+      </c>
       <c r="H220" t="inlineStr">
         <is>
           <t>SSI</t>
@@ -16009,7 +16261,7 @@
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>MyqrhX</t>
+          <t>h0g1jz</t>
         </is>
       </c>
     </row>
@@ -16025,7 +16277,9 @@
       <c r="C221" t="n">
         <v>1301164259</v>
       </c>
-      <c r="D221" t="inlineStr"/>
+      <c r="D221" t="n">
+        <v>0</v>
+      </c>
       <c r="E221" t="inlineStr">
         <is>
           <t>TELE</t>
@@ -16078,7 +16332,7 @@
       </c>
       <c r="O221" t="inlineStr">
         <is>
-          <t>ZSbmQo</t>
+          <t>mgwGj5</t>
         </is>
       </c>
     </row>
@@ -16151,7 +16405,7 @@
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>WkZZ2h</t>
+          <t>F5SoYK</t>
         </is>
       </c>
     </row>
@@ -16224,7 +16478,7 @@
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>E5YJGP</t>
+          <t>GKmOoG</t>
         </is>
       </c>
     </row>
@@ -16297,7 +16551,7 @@
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>DwwhSP</t>
+          <t>r5a4A9</t>
         </is>
       </c>
     </row>
@@ -16370,7 +16624,7 @@
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>V8Jty8</t>
+          <t>bgycvg</t>
         </is>
       </c>
     </row>
@@ -16443,7 +16697,7 @@
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>bXmN6U</t>
+          <t>UZiKNq</t>
         </is>
       </c>
     </row>
@@ -16459,7 +16713,9 @@
       <c r="C227" t="n">
         <v>1301154225</v>
       </c>
-      <c r="D227" t="inlineStr"/>
+      <c r="D227" t="n">
+        <v>0</v>
+      </c>
       <c r="E227" t="inlineStr">
         <is>
           <t>MCE</t>
@@ -16512,7 +16768,7 @@
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>jxaU9H</t>
+          <t>EDXhVa</t>
         </is>
       </c>
     </row>
@@ -16585,7 +16841,7 @@
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>O6LGdP</t>
+          <t>Op7DoB</t>
         </is>
       </c>
     </row>
@@ -16659,7 +16915,7 @@
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>f5lQVd</t>
+          <t>DJw7LJ</t>
         </is>
       </c>
     </row>
@@ -16675,7 +16931,9 @@
       <c r="C230" t="n">
         <v>1301164274</v>
       </c>
-      <c r="D230" t="inlineStr"/>
+      <c r="D230" t="n">
+        <v>0</v>
+      </c>
       <c r="E230" t="inlineStr">
         <is>
           <t>MCE</t>
@@ -16686,7 +16944,9 @@
           <t>NIK</t>
         </is>
       </c>
-      <c r="G230" t="inlineStr"/>
+      <c r="G230" t="n">
+        <v>0</v>
+      </c>
       <c r="H230" t="inlineStr">
         <is>
           <t>DAY</t>
@@ -16724,7 +16984,7 @@
       </c>
       <c r="O230" t="inlineStr">
         <is>
-          <t>UpnbNa</t>
+          <t>b5FyFH</t>
         </is>
       </c>
     </row>
@@ -16798,7 +17058,7 @@
       </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>Qu9dyz</t>
+          <t>lh5OPA</t>
         </is>
       </c>
     </row>
@@ -16871,7 +17131,7 @@
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>RyihkC</t>
+          <t>WmMfXO</t>
         </is>
       </c>
     </row>
@@ -16887,7 +17147,9 @@
       <c r="C233" t="n">
         <v>1301164235</v>
       </c>
-      <c r="D233" t="inlineStr"/>
+      <c r="D233" t="n">
+        <v>0</v>
+      </c>
       <c r="E233" t="inlineStr">
         <is>
           <t>TELE</t>
@@ -16940,7 +17202,7 @@
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>EsppAq</t>
+          <t>YuCHqC</t>
         </is>
       </c>
     </row>
@@ -16956,7 +17218,9 @@
       <c r="C234" t="n">
         <v>1301154699</v>
       </c>
-      <c r="D234" t="inlineStr"/>
+      <c r="D234" t="n">
+        <v>0</v>
+      </c>
       <c r="E234" t="inlineStr">
         <is>
           <t>TELE</t>
@@ -16967,7 +17231,9 @@
           <t>SMD</t>
         </is>
       </c>
-      <c r="G234" t="inlineStr"/>
+      <c r="G234" t="n">
+        <v>0</v>
+      </c>
       <c r="H234" t="inlineStr">
         <is>
           <t>DWS</t>
@@ -17005,7 +17271,7 @@
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>aRenOC</t>
+          <t>ngvhv2</t>
         </is>
       </c>
     </row>
@@ -17021,7 +17287,9 @@
       <c r="C235" t="n">
         <v>1301164030</v>
       </c>
-      <c r="D235" t="inlineStr"/>
+      <c r="D235" t="n">
+        <v>0</v>
+      </c>
       <c r="E235" t="inlineStr">
         <is>
           <t>ICM</t>
@@ -17032,7 +17300,9 @@
           <t>SUO</t>
         </is>
       </c>
-      <c r="G235" t="inlineStr"/>
+      <c r="G235" t="n">
+        <v>0</v>
+      </c>
       <c r="H235" t="inlineStr">
         <is>
           <t>ADE</t>
@@ -17070,7 +17340,7 @@
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>I7TmxK</t>
+          <t>lZcCct</t>
         </is>
       </c>
     </row>
@@ -17143,7 +17413,7 @@
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>yRRtLT</t>
+          <t>w2dt25</t>
         </is>
       </c>
     </row>
@@ -17175,7 +17445,9 @@
           <t>KMM</t>
         </is>
       </c>
-      <c r="G237" t="inlineStr"/>
+      <c r="G237" t="n">
+        <v>0</v>
+      </c>
       <c r="H237" t="inlineStr">
         <is>
           <t>YLS</t>
@@ -17213,7 +17485,7 @@
       </c>
       <c r="O237" t="inlineStr">
         <is>
-          <t>kPPmu8</t>
+          <t>coZZ6q</t>
         </is>
       </c>
     </row>
@@ -17286,7 +17558,7 @@
       </c>
       <c r="O238" t="inlineStr">
         <is>
-          <t>uIL3Ge</t>
+          <t>hAH0QK</t>
         </is>
       </c>
     </row>
@@ -17359,7 +17631,7 @@
       </c>
       <c r="O239" t="inlineStr">
         <is>
-          <t>rnTTiy</t>
+          <t>cdovdV</t>
         </is>
       </c>
     </row>
@@ -17432,7 +17704,7 @@
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>1PCfIy</t>
+          <t>ZptLC4</t>
         </is>
       </c>
     </row>
@@ -17448,7 +17720,9 @@
       <c r="C241" t="n">
         <v>1301154506</v>
       </c>
-      <c r="D241" t="inlineStr"/>
+      <c r="D241" t="n">
+        <v>0</v>
+      </c>
       <c r="E241" t="inlineStr">
         <is>
           <t>TELE</t>
@@ -17459,7 +17733,9 @@
           <t>MMA</t>
         </is>
       </c>
-      <c r="G241" t="inlineStr"/>
+      <c r="G241" t="n">
+        <v>0</v>
+      </c>
       <c r="H241" t="inlineStr">
         <is>
           <t>CWW</t>
@@ -17497,7 +17773,7 @@
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>dbI9IH</t>
+          <t>ZxoDCm</t>
         </is>
       </c>
     </row>
@@ -17513,7 +17789,9 @@
       <c r="C242" t="n">
         <v>1103130274</v>
       </c>
-      <c r="D242" t="inlineStr"/>
+      <c r="D242" t="n">
+        <v>0</v>
+      </c>
       <c r="E242" t="inlineStr">
         <is>
           <t>TELE</t>
@@ -17566,7 +17844,7 @@
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>HIokzC</t>
+          <t>ulKLZh</t>
         </is>
       </c>
     </row>
@@ -17582,7 +17860,9 @@
       <c r="C243" t="n">
         <v>1301164052</v>
       </c>
-      <c r="D243" t="inlineStr"/>
+      <c r="D243" t="n">
+        <v>0</v>
+      </c>
       <c r="E243" t="inlineStr">
         <is>
           <t>ICM</t>
@@ -17635,7 +17915,7 @@
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>pKoc4I</t>
+          <t>EGIuLz</t>
         </is>
       </c>
     </row>
@@ -17708,7 +17988,7 @@
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>Rgs2hg</t>
+          <t>mTqgXn</t>
         </is>
       </c>
     </row>
@@ -17781,7 +18061,7 @@
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>D3SPjA</t>
+          <t>Ss8sFg</t>
         </is>
       </c>
     </row>
@@ -17854,7 +18134,7 @@
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>eNSP4R</t>
+          <t>2jqjZK</t>
         </is>
       </c>
     </row>
@@ -17927,7 +18207,7 @@
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>rA64sc</t>
+          <t>jxcKFS</t>
         </is>
       </c>
     </row>
@@ -17943,7 +18223,9 @@
       <c r="C248" t="n">
         <v>1301164599</v>
       </c>
-      <c r="D248" t="inlineStr"/>
+      <c r="D248" t="n">
+        <v>0</v>
+      </c>
       <c r="E248" t="inlineStr">
         <is>
           <t>TELE</t>
@@ -17996,7 +18278,7 @@
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>0wDbSv</t>
+          <t>6B55O8</t>
         </is>
       </c>
     </row>
@@ -18069,7 +18351,7 @@
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>EbGMDD</t>
+          <t>aS4OqW</t>
         </is>
       </c>
     </row>
@@ -18142,12 +18424,14 @@
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>WkNMOI</t>
+          <t>sBtGUF</t>
         </is>
       </c>
     </row>
     <row r="251">
-      <c r="A251" t="inlineStr"/>
+      <c r="A251" t="n">
+        <v>0</v>
+      </c>
       <c r="B251" t="inlineStr">
         <is>
           <t>ADE SATRIO WIRAWAN</t>
@@ -18213,7 +18497,7 @@
       </c>
       <c r="O251" t="inlineStr">
         <is>
-          <t>rTF8sk</t>
+          <t>SX5G1S</t>
         </is>
       </c>
     </row>
@@ -18229,7 +18513,9 @@
       <c r="C252" t="n">
         <v>1301160375</v>
       </c>
-      <c r="D252" t="inlineStr"/>
+      <c r="D252" t="n">
+        <v>0</v>
+      </c>
       <c r="E252" t="inlineStr">
         <is>
           <t>ICM</t>
@@ -18282,7 +18568,7 @@
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>GXJW33</t>
+          <t>QZKgqD</t>
         </is>
       </c>
     </row>
@@ -18355,7 +18641,7 @@
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>1HIKLK</t>
+          <t>idRrmF</t>
         </is>
       </c>
     </row>
@@ -18371,7 +18657,9 @@
       <c r="C254" t="n">
         <v>1301150774</v>
       </c>
-      <c r="D254" t="inlineStr"/>
+      <c r="D254" t="n">
+        <v>0</v>
+      </c>
       <c r="E254" t="inlineStr">
         <is>
           <t>MCE</t>
@@ -18424,7 +18712,7 @@
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>kH6lch</t>
+          <t>hVeyzh</t>
         </is>
       </c>
     </row>
@@ -18455,7 +18743,9 @@
           <t>SUO</t>
         </is>
       </c>
-      <c r="G255" t="inlineStr"/>
+      <c r="G255" t="n">
+        <v>0</v>
+      </c>
       <c r="H255" t="inlineStr">
         <is>
           <t>RSM</t>
@@ -18493,7 +18783,7 @@
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>lQwcCF</t>
+          <t>eUu4nk</t>
         </is>
       </c>
     </row>
@@ -18566,7 +18856,7 @@
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>Vi7t0L</t>
+          <t>rex2xB</t>
         </is>
       </c>
     </row>
@@ -18582,7 +18872,9 @@
       <c r="C257" t="n">
         <v>1301164705</v>
       </c>
-      <c r="D257" t="inlineStr"/>
+      <c r="D257" t="n">
+        <v>0</v>
+      </c>
       <c r="E257" t="inlineStr">
         <is>
           <t>TELE</t>
@@ -18635,7 +18927,7 @@
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>1DlN7f</t>
+          <t>8YzItq</t>
         </is>
       </c>
     </row>
@@ -18708,7 +19000,7 @@
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>gSXZfR</t>
+          <t>1yWvIz</t>
         </is>
       </c>
     </row>
@@ -18781,7 +19073,7 @@
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>jnGZpj</t>
+          <t>eieYQZ</t>
         </is>
       </c>
     </row>
@@ -18854,7 +19146,7 @@
       </c>
       <c r="O260" t="inlineStr">
         <is>
-          <t>yii7tU</t>
+          <t>pAajZS</t>
         </is>
       </c>
     </row>
@@ -18870,7 +19162,9 @@
       <c r="C261" t="n">
         <v>1301160038</v>
       </c>
-      <c r="D261" t="inlineStr"/>
+      <c r="D261" t="n">
+        <v>0</v>
+      </c>
       <c r="E261" t="inlineStr">
         <is>
           <t>MCE</t>
@@ -18923,7 +19217,7 @@
       </c>
       <c r="O261" t="inlineStr">
         <is>
-          <t>k5THzP</t>
+          <t>LrtG8D</t>
         </is>
       </c>
     </row>
@@ -18954,7 +19248,9 @@
           <t>MMA</t>
         </is>
       </c>
-      <c r="G262" t="inlineStr"/>
+      <c r="G262" t="n">
+        <v>0</v>
+      </c>
       <c r="H262" t="inlineStr">
         <is>
           <t>ADR</t>
@@ -18992,7 +19288,7 @@
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>Dzeett</t>
+          <t>tcCdws</t>
         </is>
       </c>
     </row>
@@ -19065,7 +19361,7 @@
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>ZcdMY8</t>
+          <t>MZpExs</t>
         </is>
       </c>
     </row>
@@ -19138,7 +19434,7 @@
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>zijaWK</t>
+          <t>hwTIcZ</t>
         </is>
       </c>
     </row>
@@ -19154,7 +19450,9 @@
       <c r="C265" t="n">
         <v>1301178374</v>
       </c>
-      <c r="D265" t="inlineStr"/>
+      <c r="D265" t="n">
+        <v>0</v>
+      </c>
       <c r="E265" t="inlineStr">
         <is>
           <t>TELE</t>
@@ -19165,7 +19463,9 @@
           <t>HHN</t>
         </is>
       </c>
-      <c r="G265" t="inlineStr"/>
+      <c r="G265" t="n">
+        <v>0</v>
+      </c>
       <c r="H265" t="inlineStr">
         <is>
           <t>ADR</t>
@@ -19203,7 +19503,7 @@
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>MeHbZ8</t>
+          <t>5vRrul</t>
         </is>
       </c>
     </row>
@@ -19276,7 +19576,7 @@
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>7TuRIz</t>
+          <t>wVetFt</t>
         </is>
       </c>
     </row>
@@ -19350,7 +19650,7 @@
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>eCFMJ9</t>
+          <t>PXBt4X</t>
         </is>
       </c>
     </row>
@@ -19423,7 +19723,7 @@
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>SFJOU1</t>
+          <t>38TMo0</t>
         </is>
       </c>
     </row>
@@ -19496,7 +19796,7 @@
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>9ZSjFu</t>
+          <t>1ML15m</t>
         </is>
       </c>
     </row>
@@ -19569,7 +19869,7 @@
       </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>VZe5jc</t>
+          <t>qfeeDi</t>
         </is>
       </c>
     </row>
@@ -19642,7 +19942,7 @@
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>ygEfCi</t>
+          <t>mIxTv4</t>
         </is>
       </c>
     </row>
@@ -19715,7 +20015,7 @@
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>qjebW7</t>
+          <t>s6J4Cy</t>
         </is>
       </c>
     </row>
@@ -19731,7 +20031,9 @@
       <c r="C273" t="n">
         <v>1301154346</v>
       </c>
-      <c r="D273" t="inlineStr"/>
+      <c r="D273" t="n">
+        <v>0</v>
+      </c>
       <c r="E273" t="inlineStr">
         <is>
           <t>TELE</t>
@@ -19784,7 +20086,7 @@
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>6bm9xn</t>
+          <t>u2fD72</t>
         </is>
       </c>
     </row>
@@ -19835,8 +20137,12 @@
           <t>Analisa dan Perbandingan RSSI dan TDoA dengan RSSI dan ToA sebagai Geo-Location menggunakan LoRa pada studi kasus pendakian gunung</t>
         </is>
       </c>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>0</v>
+      </c>
+      <c r="L274" t="n">
+        <v>0</v>
+      </c>
       <c r="M274" t="inlineStr">
         <is>
           <t>Jalur Pengganti Sidang (belum mengajukan)</t>
@@ -19849,11 +20155,11 @@
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>JQz5wq</t>
+          <t>gAIzH3</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>